--- a/lang/ar/headTags.xlsx
+++ b/lang/ar/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1180</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1181</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2340">
   <si>
     <t>en</t>
   </si>
@@ -1898,6 +1898,12 @@
   </si>
   <si>
     <t>متفجر</t>
+  </si>
+  <si>
+    <t>Eye</t>
+  </si>
+  <si>
+    <t>العين</t>
   </si>
   <si>
     <t>Eyepatch</t>
@@ -7377,7 +7383,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1180"/>
+  <dimension ref="A1:B1181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -9971,12 +9977,12 @@
         <v>643</v>
       </c>
       <c r="B323" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B324" t="s">
         <v>645</v>
@@ -10075,15 +10081,15 @@
         <v>668</v>
       </c>
       <c r="B336" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" t="s">
+        <v>670</v>
+      </c>
+      <c r="B337" t="s">
         <v>669</v>
-      </c>
-      <c r="B337" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -10243,15 +10249,15 @@
         <v>709</v>
       </c>
       <c r="B357" t="s">
-        <v>702</v>
+        <v>710</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B358" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -10691,15 +10697,15 @@
         <v>820</v>
       </c>
       <c r="B413" t="s">
-        <v>791</v>
+        <v>821</v>
       </c>
     </row>
     <row r="414" spans="1:2">
       <c r="A414" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="B414" t="s">
-        <v>822</v>
+        <v>793</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -11099,15 +11105,15 @@
         <v>921</v>
       </c>
       <c r="B464" t="s">
-        <v>630</v>
+        <v>922</v>
       </c>
     </row>
     <row r="465" spans="1:2">
       <c r="A465" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="B465" t="s">
-        <v>923</v>
+        <v>632</v>
       </c>
     </row>
     <row r="466" spans="1:2">
@@ -11227,12 +11233,12 @@
         <v>952</v>
       </c>
       <c r="B480" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
     </row>
     <row r="481" spans="1:2">
       <c r="A481" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="B481" t="s">
         <v>954</v>
@@ -12347,15 +12353,15 @@
         <v>1231</v>
       </c>
       <c r="B620" t="s">
-        <v>1230</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="621" spans="1:2">
       <c r="A621" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B621" t="s">
         <v>1232</v>
-      </c>
-      <c r="B621" t="s">
-        <v>1233</v>
       </c>
     </row>
     <row r="622" spans="1:2">
@@ -13763,15 +13769,15 @@
         <v>1584</v>
       </c>
       <c r="B797" t="s">
-        <v>1583</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="798" spans="1:2">
       <c r="A798" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B798" t="s">
         <v>1585</v>
-      </c>
-      <c r="B798" t="s">
-        <v>1586</v>
       </c>
     </row>
     <row r="799" spans="1:2">
@@ -14395,12 +14401,12 @@
         <v>1741</v>
       </c>
       <c r="B876" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="877" spans="1:2">
       <c r="A877" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="B877" t="s">
         <v>1743</v>
@@ -14467,12 +14473,12 @@
         <v>1758</v>
       </c>
       <c r="B885" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="886" spans="1:2">
       <c r="A886" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="B886" t="s">
         <v>1760</v>
@@ -14827,12 +14833,12 @@
         <v>1847</v>
       </c>
       <c r="B930" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="931" spans="1:2">
       <c r="A931" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="B931" t="s">
         <v>1849</v>
@@ -15427,12 +15433,12 @@
         <v>1996</v>
       </c>
       <c r="B1005" t="s">
-        <v>1996</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="1006" spans="1:2">
       <c r="A1006" t="s">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="B1006" t="s">
         <v>1998</v>
@@ -15707,12 +15713,12 @@
         <v>2065</v>
       </c>
       <c r="B1040" t="s">
-        <v>2065</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="1041" spans="1:2">
       <c r="A1041" t="s">
-        <v>2066</v>
+        <v>2067</v>
       </c>
       <c r="B1041" t="s">
         <v>2067</v>
@@ -15731,12 +15737,12 @@
         <v>2070</v>
       </c>
       <c r="B1043" t="s">
-        <v>2070</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="1044" spans="1:2">
       <c r="A1044" t="s">
-        <v>2071</v>
+        <v>2072</v>
       </c>
       <c r="B1044" t="s">
         <v>2072</v>
@@ -15771,12 +15777,12 @@
         <v>2079</v>
       </c>
       <c r="B1048" t="s">
-        <v>2079</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="1049" spans="1:2">
       <c r="A1049" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="B1049" t="s">
         <v>2081</v>
@@ -15899,12 +15905,12 @@
         <v>2110</v>
       </c>
       <c r="B1064" t="s">
-        <v>2110</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="1065" spans="1:2">
       <c r="A1065" t="s">
-        <v>2111</v>
+        <v>2112</v>
       </c>
       <c r="B1065" t="s">
         <v>2112</v>
@@ -16059,15 +16065,15 @@
         <v>2149</v>
       </c>
       <c r="B1084" t="s">
-        <v>2148</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="1085" spans="1:2">
       <c r="A1085" t="s">
+        <v>2151</v>
+      </c>
+      <c r="B1085" t="s">
         <v>2150</v>
-      </c>
-      <c r="B1085" t="s">
-        <v>2151</v>
       </c>
     </row>
     <row r="1086" spans="1:2">
@@ -16187,12 +16193,12 @@
         <v>2180</v>
       </c>
       <c r="B1100" t="s">
-        <v>2180</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="1101" spans="1:2">
       <c r="A1101" t="s">
-        <v>2181</v>
+        <v>2182</v>
       </c>
       <c r="B1101" t="s">
         <v>2182</v>
@@ -16219,12 +16225,12 @@
         <v>2187</v>
       </c>
       <c r="B1104" t="s">
-        <v>2187</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1105" spans="1:2">
       <c r="A1105" t="s">
-        <v>2188</v>
+        <v>2189</v>
       </c>
       <c r="B1105" t="s">
         <v>2189</v>
@@ -16467,12 +16473,12 @@
         <v>2248</v>
       </c>
       <c r="B1135" t="s">
-        <v>2248</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="1136" spans="1:2">
       <c r="A1136" t="s">
-        <v>2249</v>
+        <v>2250</v>
       </c>
       <c r="B1136" t="s">
         <v>2250</v>
@@ -16763,15 +16769,15 @@
         <v>2321</v>
       </c>
       <c r="B1172" t="s">
-        <v>910</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="1173" spans="1:2">
       <c r="A1173" t="s">
-        <v>2322</v>
+        <v>2323</v>
       </c>
       <c r="B1173" t="s">
-        <v>2323</v>
+        <v>912</v>
       </c>
     </row>
     <row r="1174" spans="1:2">
@@ -16830,8 +16836,16 @@
         <v>2337</v>
       </c>
     </row>
+    <row r="1181" spans="1:2">
+      <c r="A1181" t="s">
+        <v>2338</v>
+      </c>
+      <c r="B1181" t="s">
+        <v>2339</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1180"/>
+  <autoFilter ref="A1:B1181"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/ar/headTags.xlsx
+++ b/lang/ar/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1181</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1182</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2342">
   <si>
     <t>en</t>
   </si>
@@ -5591,6 +5591,12 @@
   </si>
   <si>
     <t>الخطايا السبع المميتة</t>
+  </si>
+  <si>
+    <t>Shadow of the Colossus</t>
+  </si>
+  <si>
+    <t>ظل العملاق</t>
   </si>
   <si>
     <t>Shadows of Mordor</t>
@@ -7383,7 +7389,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1181"/>
+  <dimension ref="A1:B1182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -15441,12 +15447,12 @@
         <v>1998</v>
       </c>
       <c r="B1006" t="s">
-        <v>1998</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="1007" spans="1:2">
       <c r="A1007" t="s">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="B1007" t="s">
         <v>2000</v>
@@ -15721,12 +15727,12 @@
         <v>2067</v>
       </c>
       <c r="B1041" t="s">
-        <v>2067</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="1042" spans="1:2">
       <c r="A1042" t="s">
-        <v>2068</v>
+        <v>2069</v>
       </c>
       <c r="B1042" t="s">
         <v>2069</v>
@@ -15745,12 +15751,12 @@
         <v>2072</v>
       </c>
       <c r="B1044" t="s">
-        <v>2072</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="1045" spans="1:2">
       <c r="A1045" t="s">
-        <v>2073</v>
+        <v>2074</v>
       </c>
       <c r="B1045" t="s">
         <v>2074</v>
@@ -15785,12 +15791,12 @@
         <v>2081</v>
       </c>
       <c r="B1049" t="s">
-        <v>2081</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="1050" spans="1:2">
       <c r="A1050" t="s">
-        <v>2082</v>
+        <v>2083</v>
       </c>
       <c r="B1050" t="s">
         <v>2083</v>
@@ -15913,12 +15919,12 @@
         <v>2112</v>
       </c>
       <c r="B1065" t="s">
-        <v>2112</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="1066" spans="1:2">
       <c r="A1066" t="s">
-        <v>2113</v>
+        <v>2114</v>
       </c>
       <c r="B1066" t="s">
         <v>2114</v>
@@ -16073,15 +16079,15 @@
         <v>2151</v>
       </c>
       <c r="B1085" t="s">
-        <v>2150</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="1086" spans="1:2">
       <c r="A1086" t="s">
+        <v>2153</v>
+      </c>
+      <c r="B1086" t="s">
         <v>2152</v>
-      </c>
-      <c r="B1086" t="s">
-        <v>2153</v>
       </c>
     </row>
     <row r="1087" spans="1:2">
@@ -16201,12 +16207,12 @@
         <v>2182</v>
       </c>
       <c r="B1101" t="s">
-        <v>2182</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="1102" spans="1:2">
       <c r="A1102" t="s">
-        <v>2183</v>
+        <v>2184</v>
       </c>
       <c r="B1102" t="s">
         <v>2184</v>
@@ -16233,12 +16239,12 @@
         <v>2189</v>
       </c>
       <c r="B1105" t="s">
-        <v>2189</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="1106" spans="1:2">
       <c r="A1106" t="s">
-        <v>2190</v>
+        <v>2191</v>
       </c>
       <c r="B1106" t="s">
         <v>2191</v>
@@ -16481,12 +16487,12 @@
         <v>2250</v>
       </c>
       <c r="B1136" t="s">
-        <v>2250</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="1137" spans="1:2">
       <c r="A1137" t="s">
-        <v>2251</v>
+        <v>2252</v>
       </c>
       <c r="B1137" t="s">
         <v>2252</v>
@@ -16777,15 +16783,15 @@
         <v>2323</v>
       </c>
       <c r="B1173" t="s">
-        <v>912</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="1174" spans="1:2">
       <c r="A1174" t="s">
-        <v>2324</v>
+        <v>2325</v>
       </c>
       <c r="B1174" t="s">
-        <v>2325</v>
+        <v>912</v>
       </c>
     </row>
     <row r="1175" spans="1:2">
@@ -16844,8 +16850,16 @@
         <v>2339</v>
       </c>
     </row>
+    <row r="1182" spans="1:2">
+      <c r="A1182" t="s">
+        <v>2340</v>
+      </c>
+      <c r="B1182" t="s">
+        <v>2341</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1181"/>
+  <autoFilter ref="A1:B1182"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/ar/headTags.xlsx
+++ b/lang/ar/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1183</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1184</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2346">
   <si>
     <t>en</t>
   </si>
@@ -4433,6 +4433,12 @@
   </si>
   <si>
     <t>مورتال كومبات</t>
+  </si>
+  <si>
+    <t>Mounts of Mayhem</t>
+  </si>
+  <si>
+    <t>جبال الفوضى</t>
   </si>
   <si>
     <t>Mouthwashing</t>
@@ -7395,7 +7401,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1183"/>
+  <dimension ref="A1:B1184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -13781,15 +13787,15 @@
         <v>1584</v>
       </c>
       <c r="B797" t="s">
-        <v>1583</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="798" spans="1:2">
       <c r="A798" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B798" t="s">
         <v>1585</v>
-      </c>
-      <c r="B798" t="s">
-        <v>1586</v>
       </c>
     </row>
     <row r="799" spans="1:2">
@@ -14413,12 +14419,12 @@
         <v>1741</v>
       </c>
       <c r="B876" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="877" spans="1:2">
       <c r="A877" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="B877" t="s">
         <v>1743</v>
@@ -14485,12 +14491,12 @@
         <v>1758</v>
       </c>
       <c r="B885" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="886" spans="1:2">
       <c r="A886" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="B886" t="s">
         <v>1760</v>
@@ -14845,12 +14851,12 @@
         <v>1847</v>
       </c>
       <c r="B930" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="931" spans="1:2">
       <c r="A931" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="B931" t="s">
         <v>1849</v>
@@ -15453,12 +15459,12 @@
         <v>1998</v>
       </c>
       <c r="B1006" t="s">
-        <v>1998</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="1007" spans="1:2">
       <c r="A1007" t="s">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="B1007" t="s">
         <v>2000</v>
@@ -15733,12 +15739,12 @@
         <v>2067</v>
       </c>
       <c r="B1041" t="s">
-        <v>2067</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="1042" spans="1:2">
       <c r="A1042" t="s">
-        <v>2068</v>
+        <v>2069</v>
       </c>
       <c r="B1042" t="s">
         <v>2069</v>
@@ -15765,12 +15771,12 @@
         <v>2074</v>
       </c>
       <c r="B1045" t="s">
-        <v>2074</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="1046" spans="1:2">
       <c r="A1046" t="s">
-        <v>2075</v>
+        <v>2076</v>
       </c>
       <c r="B1046" t="s">
         <v>2076</v>
@@ -15805,12 +15811,12 @@
         <v>2083</v>
       </c>
       <c r="B1050" t="s">
-        <v>2083</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="1051" spans="1:2">
       <c r="A1051" t="s">
-        <v>2084</v>
+        <v>2085</v>
       </c>
       <c r="B1051" t="s">
         <v>2085</v>
@@ -15933,12 +15939,12 @@
         <v>2114</v>
       </c>
       <c r="B1066" t="s">
-        <v>2114</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="1067" spans="1:2">
       <c r="A1067" t="s">
-        <v>2115</v>
+        <v>2116</v>
       </c>
       <c r="B1067" t="s">
         <v>2116</v>
@@ -16093,15 +16099,15 @@
         <v>2153</v>
       </c>
       <c r="B1086" t="s">
-        <v>2152</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="1087" spans="1:2">
       <c r="A1087" t="s">
+        <v>2155</v>
+      </c>
+      <c r="B1087" t="s">
         <v>2154</v>
-      </c>
-      <c r="B1087" t="s">
-        <v>2155</v>
       </c>
     </row>
     <row r="1088" spans="1:2">
@@ -16221,12 +16227,12 @@
         <v>2184</v>
       </c>
       <c r="B1102" t="s">
-        <v>2184</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="1103" spans="1:2">
       <c r="A1103" t="s">
-        <v>2185</v>
+        <v>2186</v>
       </c>
       <c r="B1103" t="s">
         <v>2186</v>
@@ -16253,12 +16259,12 @@
         <v>2191</v>
       </c>
       <c r="B1106" t="s">
-        <v>2191</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="1107" spans="1:2">
       <c r="A1107" t="s">
-        <v>2192</v>
+        <v>2193</v>
       </c>
       <c r="B1107" t="s">
         <v>2193</v>
@@ -16501,12 +16507,12 @@
         <v>2252</v>
       </c>
       <c r="B1137" t="s">
-        <v>2252</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="1138" spans="1:2">
       <c r="A1138" t="s">
-        <v>2253</v>
+        <v>2254</v>
       </c>
       <c r="B1138" t="s">
         <v>2254</v>
@@ -16805,15 +16811,15 @@
         <v>2327</v>
       </c>
       <c r="B1175" t="s">
-        <v>910</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="1176" spans="1:2">
       <c r="A1176" t="s">
-        <v>2328</v>
+        <v>2329</v>
       </c>
       <c r="B1176" t="s">
-        <v>2329</v>
+        <v>910</v>
       </c>
     </row>
     <row r="1177" spans="1:2">
@@ -16872,8 +16878,16 @@
         <v>2343</v>
       </c>
     </row>
+    <row r="1184" spans="1:2">
+      <c r="A1184" t="s">
+        <v>2344</v>
+      </c>
+      <c r="B1184" t="s">
+        <v>2345</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1183"/>
+  <autoFilter ref="A1:B1184"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/ar/headTags.xlsx
+++ b/lang/ar/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1184</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1185</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2348">
   <si>
     <t>en</t>
   </si>
@@ -2492,6 +2492,12 @@
   </si>
   <si>
     <t>الخط (قوس قزح)</t>
+  </si>
+  <si>
+    <t>Font (Red Chiseled Sandstone)</t>
+  </si>
+  <si>
+    <t>الخط (حجر رملي محفور باللون الأحمر)</t>
   </si>
   <si>
     <t>Font (Red)</t>
@@ -7401,7 +7407,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1184"/>
+  <dimension ref="A1:B1185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -11123,15 +11129,15 @@
         <v>921</v>
       </c>
       <c r="B464" t="s">
-        <v>632</v>
+        <v>922</v>
       </c>
     </row>
     <row r="465" spans="1:2">
       <c r="A465" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="B465" t="s">
-        <v>923</v>
+        <v>632</v>
       </c>
     </row>
     <row r="466" spans="1:2">
@@ -11251,12 +11257,12 @@
         <v>952</v>
       </c>
       <c r="B480" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
     </row>
     <row r="481" spans="1:2">
       <c r="A481" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="B481" t="s">
         <v>954</v>
@@ -12371,15 +12377,15 @@
         <v>1231</v>
       </c>
       <c r="B620" t="s">
-        <v>1230</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="621" spans="1:2">
       <c r="A621" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B621" t="s">
         <v>1232</v>
-      </c>
-      <c r="B621" t="s">
-        <v>1233</v>
       </c>
     </row>
     <row r="622" spans="1:2">
@@ -13795,15 +13801,15 @@
         <v>1586</v>
       </c>
       <c r="B798" t="s">
-        <v>1585</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="799" spans="1:2">
       <c r="A799" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B799" t="s">
         <v>1587</v>
-      </c>
-      <c r="B799" t="s">
-        <v>1588</v>
       </c>
     </row>
     <row r="800" spans="1:2">
@@ -14427,12 +14433,12 @@
         <v>1743</v>
       </c>
       <c r="B877" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="878" spans="1:2">
       <c r="A878" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="B878" t="s">
         <v>1745</v>
@@ -14499,12 +14505,12 @@
         <v>1760</v>
       </c>
       <c r="B886" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="887" spans="1:2">
       <c r="A887" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="B887" t="s">
         <v>1762</v>
@@ -14859,12 +14865,12 @@
         <v>1849</v>
       </c>
       <c r="B931" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="932" spans="1:2">
       <c r="A932" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="B932" t="s">
         <v>1851</v>
@@ -15467,12 +15473,12 @@
         <v>2000</v>
       </c>
       <c r="B1007" t="s">
-        <v>2000</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="1008" spans="1:2">
       <c r="A1008" t="s">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="B1008" t="s">
         <v>2002</v>
@@ -15747,12 +15753,12 @@
         <v>2069</v>
       </c>
       <c r="B1042" t="s">
-        <v>2069</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="1043" spans="1:2">
       <c r="A1043" t="s">
-        <v>2070</v>
+        <v>2071</v>
       </c>
       <c r="B1043" t="s">
         <v>2071</v>
@@ -15779,12 +15785,12 @@
         <v>2076</v>
       </c>
       <c r="B1046" t="s">
-        <v>2076</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="1047" spans="1:2">
       <c r="A1047" t="s">
-        <v>2077</v>
+        <v>2078</v>
       </c>
       <c r="B1047" t="s">
         <v>2078</v>
@@ -15819,12 +15825,12 @@
         <v>2085</v>
       </c>
       <c r="B1051" t="s">
-        <v>2085</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="1052" spans="1:2">
       <c r="A1052" t="s">
-        <v>2086</v>
+        <v>2087</v>
       </c>
       <c r="B1052" t="s">
         <v>2087</v>
@@ -15947,12 +15953,12 @@
         <v>2116</v>
       </c>
       <c r="B1067" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="1068" spans="1:2">
       <c r="A1068" t="s">
-        <v>2117</v>
+        <v>2118</v>
       </c>
       <c r="B1068" t="s">
         <v>2118</v>
@@ -16107,15 +16113,15 @@
         <v>2155</v>
       </c>
       <c r="B1087" t="s">
-        <v>2154</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="1088" spans="1:2">
       <c r="A1088" t="s">
+        <v>2157</v>
+      </c>
+      <c r="B1088" t="s">
         <v>2156</v>
-      </c>
-      <c r="B1088" t="s">
-        <v>2157</v>
       </c>
     </row>
     <row r="1089" spans="1:2">
@@ -16235,12 +16241,12 @@
         <v>2186</v>
       </c>
       <c r="B1103" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="1104" spans="1:2">
       <c r="A1104" t="s">
-        <v>2187</v>
+        <v>2188</v>
       </c>
       <c r="B1104" t="s">
         <v>2188</v>
@@ -16267,12 +16273,12 @@
         <v>2193</v>
       </c>
       <c r="B1107" t="s">
-        <v>2193</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="1108" spans="1:2">
       <c r="A1108" t="s">
-        <v>2194</v>
+        <v>2195</v>
       </c>
       <c r="B1108" t="s">
         <v>2195</v>
@@ -16515,12 +16521,12 @@
         <v>2254</v>
       </c>
       <c r="B1138" t="s">
-        <v>2254</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="1139" spans="1:2">
       <c r="A1139" t="s">
-        <v>2255</v>
+        <v>2256</v>
       </c>
       <c r="B1139" t="s">
         <v>2256</v>
@@ -16819,15 +16825,15 @@
         <v>2329</v>
       </c>
       <c r="B1176" t="s">
-        <v>910</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="1177" spans="1:2">
       <c r="A1177" t="s">
-        <v>2330</v>
+        <v>2331</v>
       </c>
       <c r="B1177" t="s">
-        <v>2331</v>
+        <v>912</v>
       </c>
     </row>
     <row r="1178" spans="1:2">
@@ -16886,8 +16892,16 @@
         <v>2345</v>
       </c>
     </row>
+    <row r="1185" spans="1:2">
+      <c r="A1185" t="s">
+        <v>2346</v>
+      </c>
+      <c r="B1185" t="s">
+        <v>2347</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1184"/>
+  <autoFilter ref="A1:B1185"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/ar/headTags.xlsx
+++ b/lang/ar/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1185</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1186</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2350">
   <si>
     <t>en</t>
   </si>
@@ -6557,6 +6557,12 @@
   </si>
   <si>
     <t>غابة الشفق</t>
+  </si>
+  <si>
+    <t>Twisted Wonderland</t>
+  </si>
+  <si>
+    <t>أرض العجائب الملتوية</t>
   </si>
   <si>
     <t>Ultrakill</t>
@@ -7407,7 +7413,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1185"/>
+  <dimension ref="A1:B1186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -16249,12 +16255,12 @@
         <v>2188</v>
       </c>
       <c r="B1104" t="s">
-        <v>2188</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="1105" spans="1:2">
       <c r="A1105" t="s">
-        <v>2189</v>
+        <v>2190</v>
       </c>
       <c r="B1105" t="s">
         <v>2190</v>
@@ -16281,12 +16287,12 @@
         <v>2195</v>
       </c>
       <c r="B1108" t="s">
-        <v>2195</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="1109" spans="1:2">
       <c r="A1109" t="s">
-        <v>2196</v>
+        <v>2197</v>
       </c>
       <c r="B1109" t="s">
         <v>2197</v>
@@ -16529,12 +16535,12 @@
         <v>2256</v>
       </c>
       <c r="B1139" t="s">
-        <v>2256</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="1140" spans="1:2">
       <c r="A1140" t="s">
-        <v>2257</v>
+        <v>2258</v>
       </c>
       <c r="B1140" t="s">
         <v>2258</v>
@@ -16833,15 +16839,15 @@
         <v>2331</v>
       </c>
       <c r="B1177" t="s">
-        <v>912</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="1178" spans="1:2">
       <c r="A1178" t="s">
-        <v>2332</v>
+        <v>2333</v>
       </c>
       <c r="B1178" t="s">
-        <v>2333</v>
+        <v>912</v>
       </c>
     </row>
     <row r="1179" spans="1:2">
@@ -16900,8 +16906,16 @@
         <v>2347</v>
       </c>
     </row>
+    <row r="1186" spans="1:2">
+      <c r="A1186" t="s">
+        <v>2348</v>
+      </c>
+      <c r="B1186" t="s">
+        <v>2349</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1185"/>
+  <autoFilter ref="A1:B1186"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/ar/headTags.xlsx
+++ b/lang/ar/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1186</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1187</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2352">
   <si>
     <t>en</t>
   </si>
@@ -3494,6 +3494,12 @@
   </si>
   <si>
     <t>هايبيكسل (المينيون)</t>
+  </si>
+  <si>
+    <t>Hypixel (Mutations) Tag</t>
+  </si>
+  <si>
+    <t>علامة Hypixel (الطفرات)</t>
   </si>
   <si>
     <t>Hypixel (NPC)</t>
@@ -7413,7 +7419,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1186"/>
+  <dimension ref="A1:B1187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -12391,15 +12397,15 @@
         <v>1233</v>
       </c>
       <c r="B621" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="622" spans="1:2">
       <c r="A622" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B622" t="s">
         <v>1234</v>
-      </c>
-      <c r="B622" t="s">
-        <v>1235</v>
       </c>
     </row>
     <row r="623" spans="1:2">
@@ -13815,15 +13821,15 @@
         <v>1588</v>
       </c>
       <c r="B799" t="s">
-        <v>1587</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="800" spans="1:2">
       <c r="A800" t="s">
+        <v>1590</v>
+      </c>
+      <c r="B800" t="s">
         <v>1589</v>
-      </c>
-      <c r="B800" t="s">
-        <v>1590</v>
       </c>
     </row>
     <row r="801" spans="1:2">
@@ -14447,12 +14453,12 @@
         <v>1745</v>
       </c>
       <c r="B878" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="879" spans="1:2">
       <c r="A879" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="B879" t="s">
         <v>1747</v>
@@ -14519,12 +14525,12 @@
         <v>1762</v>
       </c>
       <c r="B887" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="888" spans="1:2">
       <c r="A888" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="B888" t="s">
         <v>1764</v>
@@ -14879,12 +14885,12 @@
         <v>1851</v>
       </c>
       <c r="B932" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="933" spans="1:2">
       <c r="A933" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="B933" t="s">
         <v>1853</v>
@@ -15487,12 +15493,12 @@
         <v>2002</v>
       </c>
       <c r="B1008" t="s">
-        <v>2002</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="1009" spans="1:2">
       <c r="A1009" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B1009" t="s">
         <v>2004</v>
@@ -15767,12 +15773,12 @@
         <v>2071</v>
       </c>
       <c r="B1043" t="s">
-        <v>2071</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="1044" spans="1:2">
       <c r="A1044" t="s">
-        <v>2072</v>
+        <v>2073</v>
       </c>
       <c r="B1044" t="s">
         <v>2073</v>
@@ -15799,12 +15805,12 @@
         <v>2078</v>
       </c>
       <c r="B1047" t="s">
-        <v>2078</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="1048" spans="1:2">
       <c r="A1048" t="s">
-        <v>2079</v>
+        <v>2080</v>
       </c>
       <c r="B1048" t="s">
         <v>2080</v>
@@ -15839,12 +15845,12 @@
         <v>2087</v>
       </c>
       <c r="B1052" t="s">
-        <v>2087</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="1053" spans="1:2">
       <c r="A1053" t="s">
-        <v>2088</v>
+        <v>2089</v>
       </c>
       <c r="B1053" t="s">
         <v>2089</v>
@@ -15967,12 +15973,12 @@
         <v>2118</v>
       </c>
       <c r="B1068" t="s">
-        <v>2118</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="1069" spans="1:2">
       <c r="A1069" t="s">
-        <v>2119</v>
+        <v>2120</v>
       </c>
       <c r="B1069" t="s">
         <v>2120</v>
@@ -16127,15 +16133,15 @@
         <v>2157</v>
       </c>
       <c r="B1088" t="s">
-        <v>2156</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="1089" spans="1:2">
       <c r="A1089" t="s">
+        <v>2159</v>
+      </c>
+      <c r="B1089" t="s">
         <v>2158</v>
-      </c>
-      <c r="B1089" t="s">
-        <v>2159</v>
       </c>
     </row>
     <row r="1090" spans="1:2">
@@ -16263,12 +16269,12 @@
         <v>2190</v>
       </c>
       <c r="B1105" t="s">
-        <v>2190</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="1106" spans="1:2">
       <c r="A1106" t="s">
-        <v>2191</v>
+        <v>2192</v>
       </c>
       <c r="B1106" t="s">
         <v>2192</v>
@@ -16295,12 +16301,12 @@
         <v>2197</v>
       </c>
       <c r="B1109" t="s">
-        <v>2197</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="1110" spans="1:2">
       <c r="A1110" t="s">
-        <v>2198</v>
+        <v>2199</v>
       </c>
       <c r="B1110" t="s">
         <v>2199</v>
@@ -16543,12 +16549,12 @@
         <v>2258</v>
       </c>
       <c r="B1140" t="s">
-        <v>2258</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="1141" spans="1:2">
       <c r="A1141" t="s">
-        <v>2259</v>
+        <v>2260</v>
       </c>
       <c r="B1141" t="s">
         <v>2260</v>
@@ -16847,15 +16853,15 @@
         <v>2333</v>
       </c>
       <c r="B1178" t="s">
-        <v>912</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="1179" spans="1:2">
       <c r="A1179" t="s">
-        <v>2334</v>
+        <v>2335</v>
       </c>
       <c r="B1179" t="s">
-        <v>2335</v>
+        <v>912</v>
       </c>
     </row>
     <row r="1180" spans="1:2">
@@ -16914,8 +16920,16 @@
         <v>2349</v>
       </c>
     </row>
+    <row r="1187" spans="1:2">
+      <c r="A1187" t="s">
+        <v>2350</v>
+      </c>
+      <c r="B1187" t="s">
+        <v>2351</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1186"/>
+  <autoFilter ref="A1:B1187"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/ar/headTags.xlsx
+++ b/lang/ar/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1187</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1188</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2354">
   <si>
     <t>en</t>
   </si>
@@ -3496,3514 +3496,3520 @@
     <t>هايبيكسل (المينيون)</t>
   </si>
   <si>
+    <t>Hypixel (Mutations)</t>
+  </si>
+  <si>
+    <t>هايبيكسل (الطفرات)</t>
+  </si>
+  <si>
+    <t>Hypixel (NPC)</t>
+  </si>
+  <si>
+    <t>هايبيكسل (الشخصيات غير القابلة للعب)</t>
+  </si>
+  <si>
+    <t>Hypixel (Pets)</t>
+  </si>
+  <si>
+    <t>هايبكسل (حيوانات أليفة)</t>
+  </si>
+  <si>
+    <t>Hypixel (Reforge Stone)</t>
+  </si>
+  <si>
+    <t>هايبكسل (حجر إعادة التشكيل)</t>
+  </si>
+  <si>
+    <t>Hypixel (Sacks)</t>
+  </si>
+  <si>
+    <t>هايبيكسل (الأكياس)</t>
+  </si>
+  <si>
+    <t>Hypixel (Skins)</t>
+  </si>
+  <si>
+    <t>هايبيكسل (الجلود)</t>
+  </si>
+  <si>
+    <t>Hypixel (Talismans)</t>
+  </si>
+  <si>
+    <t>هايبكسل (التعويذات)</t>
+  </si>
+  <si>
+    <t>Hypixel (Trophy Fish)</t>
+  </si>
+  <si>
+    <t>هايبيكسل (أسماك الكؤوس)</t>
+  </si>
+  <si>
+    <t>Hōseki no Kuni (Land of the Lustrous)</t>
+  </si>
+  <si>
+    <t>هوسيكي نو كوني (أرض اللمعان)</t>
+  </si>
+  <si>
+    <t>Ib</t>
+  </si>
+  <si>
+    <t>إيب</t>
+  </si>
+  <si>
+    <t>Ice Age</t>
+  </si>
+  <si>
+    <t>العصر الجليدي</t>
+  </si>
+  <si>
+    <t>Ice Climber</t>
+  </si>
+  <si>
+    <t>متسلق الجليد</t>
+  </si>
+  <si>
+    <t>Ice Cream</t>
+  </si>
+  <si>
+    <t>آيس كريم</t>
+  </si>
+  <si>
+    <t>Icons (GUI)</t>
+  </si>
+  <si>
+    <t>أيقونات (واجهة المستخدم الرسومية)</t>
+  </si>
+  <si>
+    <t>Icons (Ironblock)</t>
+  </si>
+  <si>
+    <t>أيقونات (آيرون بلوك)</t>
+  </si>
+  <si>
+    <t>Icons (Other)</t>
+  </si>
+  <si>
+    <t>أيقونات (أخرى)</t>
+  </si>
+  <si>
+    <t>Icons (white background)</t>
+  </si>
+  <si>
+    <t>أيقونات (خلفية بيضاء)</t>
+  </si>
+  <si>
+    <t>Identity V</t>
+  </si>
+  <si>
+    <t>الهوية V</t>
+  </si>
+  <si>
+    <t>Illager</t>
+  </si>
+  <si>
+    <t>أيقونات</t>
+  </si>
+  <si>
+    <t>Inazuma Eleven</t>
+  </si>
+  <si>
+    <t>إينازوما أحد عشر</t>
+  </si>
+  <si>
+    <t>Incredibles</t>
+  </si>
+  <si>
+    <t>إنكريديبلز</t>
+  </si>
+  <si>
+    <t>Indiana Jones</t>
+  </si>
+  <si>
+    <t>إنديانا جونز</t>
+  </si>
+  <si>
+    <t>Indigo Park</t>
+  </si>
+  <si>
+    <t>إنديغو بارك</t>
+  </si>
+  <si>
+    <t>Injuries</t>
+  </si>
+  <si>
+    <t>الإصابات</t>
+  </si>
+  <si>
+    <t>Inner Layer Block</t>
+  </si>
+  <si>
+    <t>كتلة الطبقة الداخلية</t>
+  </si>
+  <si>
+    <t>Inscryption</t>
+  </si>
+  <si>
+    <t>التشفير</t>
+  </si>
+  <si>
+    <t>Insect</t>
+  </si>
+  <si>
+    <t>حشرة</t>
+  </si>
+  <si>
+    <t>Inside Out</t>
+  </si>
+  <si>
+    <t>إنسايد أوت</t>
+  </si>
+  <si>
+    <t>Inu Yasha</t>
+  </si>
+  <si>
+    <t>إينو ياشا</t>
+  </si>
+  <si>
+    <t>Invader Zim</t>
+  </si>
+  <si>
+    <t>إنفيادر زيم</t>
+  </si>
+  <si>
+    <t>Invincible</t>
+  </si>
+  <si>
+    <t>إنفينسيبل</t>
+  </si>
+  <si>
+    <t>Iron Man</t>
+  </si>
+  <si>
+    <t>الرجل الحديدي</t>
+  </si>
+  <si>
+    <t>It</t>
+  </si>
+  <si>
+    <t>إيت</t>
+  </si>
+  <si>
+    <t>Jak and Daxter</t>
+  </si>
+  <si>
+    <t>جاك وداكستر</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>اليابان</t>
+  </si>
+  <si>
+    <t>Jar</t>
+  </si>
+  <si>
+    <t>جرة</t>
+  </si>
+  <si>
+    <t>Jewelry</t>
+  </si>
+  <si>
+    <t>مجوهرات</t>
+  </si>
+  <si>
+    <t>JoJo's Bizarre Adventure</t>
+  </si>
+  <si>
+    <t>مغامرة جوجو الغريبة (حامل)</t>
+  </si>
+  <si>
+    <t>JoJo's Bizarre Adventure (Stand)</t>
+  </si>
+  <si>
+    <t>Journey</t>
+  </si>
+  <si>
+    <t>رحلة</t>
+  </si>
+  <si>
+    <t>Jujutsu Kaisen</t>
+  </si>
+  <si>
+    <t>جوجوتسو كايسن</t>
+  </si>
+  <si>
+    <t>Jump King</t>
+  </si>
+  <si>
+    <t>ملك القفز</t>
+  </si>
+  <si>
+    <t>Jurassic Park</t>
+  </si>
+  <si>
+    <t>جوراسيك بارك</t>
+  </si>
+  <si>
+    <t>Justice League</t>
+  </si>
+  <si>
+    <t>رابطة العدالة</t>
+  </si>
+  <si>
+    <t>Kaiju Paradise</t>
+  </si>
+  <si>
+    <t>جنة كايجو</t>
+  </si>
+  <si>
+    <t>Kakegurui</t>
+  </si>
+  <si>
+    <t>كاكيجوروي</t>
+  </si>
+  <si>
+    <t>Karate Kid</t>
+  </si>
+  <si>
+    <t>كاراتيه كيد</t>
+  </si>
+  <si>
+    <t>Katamari Damacy</t>
+  </si>
+  <si>
+    <t>كاتاماري دامسي</t>
+  </si>
+  <si>
+    <t>Kid Icarus</t>
+  </si>
+  <si>
+    <t>كيد إيكاروس</t>
+  </si>
+  <si>
+    <t>Kiki's Delivery Service</t>
+  </si>
+  <si>
+    <t>خدمة توصيل كيكي</t>
+  </si>
+  <si>
+    <t>Kill la Kill</t>
+  </si>
+  <si>
+    <t>كيل لا كيل</t>
+  </si>
+  <si>
+    <t>Killzone</t>
+  </si>
+  <si>
+    <t>كيلزون</t>
+  </si>
+  <si>
+    <t>Kim Possible</t>
+  </si>
+  <si>
+    <t>كيم بوسيبل</t>
+  </si>
+  <si>
+    <t>Kimetsu no Yaiba</t>
+  </si>
+  <si>
+    <t>كيميتسو نو يايبا</t>
+  </si>
+  <si>
+    <t>Kingdom Hearts</t>
+  </si>
+  <si>
+    <t>مملكة القلوب</t>
+  </si>
+  <si>
+    <t>Kirby</t>
+  </si>
+  <si>
+    <t>كيربي</t>
+  </si>
+  <si>
+    <t>Kitchen</t>
+  </si>
+  <si>
+    <t>كيتشن</t>
+  </si>
+  <si>
+    <t>KonoSuba</t>
+  </si>
+  <si>
+    <t>كونوسوبا</t>
+  </si>
+  <si>
+    <t>Koopalings</t>
+  </si>
+  <si>
+    <t>كوبالينغز</t>
+  </si>
+  <si>
+    <t>Kung Fu Panda</t>
+  </si>
+  <si>
+    <t>كونغ فو باندا</t>
+  </si>
+  <si>
+    <t>Kuroko no Basuke</t>
+  </si>
+  <si>
+    <t>كوروكو نو باسوكي</t>
+  </si>
+  <si>
+    <t>Lamp Shade</t>
+  </si>
+  <si>
+    <t>غطاء المصباح</t>
+  </si>
+  <si>
+    <t>Landscape</t>
+  </si>
+  <si>
+    <t>منظر طبيعي</t>
+  </si>
+  <si>
+    <t>Lantern</t>
+  </si>
+  <si>
+    <t>فانوس</t>
+  </si>
+  <si>
+    <t>Laputa: Castle in the Sky</t>
+  </si>
+  <si>
+    <t>لابوتا: قلعة في السماء</t>
+  </si>
+  <si>
+    <t>LazyTown</t>
+  </si>
+  <si>
+    <t>المدينة الكسولة</t>
+  </si>
+  <si>
+    <t>League of Legends</t>
+  </si>
+  <si>
+    <t>عصبة الأساطير</t>
+  </si>
+  <si>
+    <t>Left 4 Dead</t>
+  </si>
+  <si>
+    <t>ليفت 4 ديد</t>
+  </si>
+  <si>
+    <t>Legendary Pokemon</t>
+  </si>
+  <si>
+    <t>بوكيمون أسطوري</t>
+  </si>
+  <si>
+    <t>Lego</t>
+  </si>
+  <si>
+    <t>ليغو</t>
+  </si>
+  <si>
+    <t>Lethal League</t>
+  </si>
+  <si>
+    <t>الدوري القاتل</t>
+  </si>
+  <si>
+    <t>Library of Ruina</t>
+  </si>
+  <si>
+    <t>مكتبة روينا</t>
+  </si>
+  <si>
+    <t>Life is Strange</t>
+  </si>
+  <si>
+    <t>الحياة غريبة</t>
+  </si>
+  <si>
+    <t>Lilo &amp; Stitch</t>
+  </si>
+  <si>
+    <t>ليلو وستيتش</t>
+  </si>
+  <si>
+    <t>Limbus Company</t>
+  </si>
+  <si>
+    <t>شركة ليمبوس</t>
+  </si>
+  <si>
+    <t>Lion King</t>
+  </si>
+  <si>
+    <t>الأسد الملك</t>
+  </si>
+  <si>
+    <t>Little Big Planet</t>
+  </si>
+  <si>
+    <t>ليتل بيغ بلانيت</t>
+  </si>
+  <si>
+    <t>Little Mermaid</t>
+  </si>
+  <si>
+    <t>ليتل ميرميد</t>
+  </si>
+  <si>
+    <t>Little Nightmares</t>
+  </si>
+  <si>
+    <t>كوابيس صغيرة</t>
+  </si>
+  <si>
+    <t>Little Shop of Horrors</t>
+  </si>
+  <si>
+    <t>متجر الرعب الصغير</t>
+  </si>
+  <si>
+    <t>Little Witch Academia</t>
+  </si>
+  <si>
+    <t>أكاديمية الساحرة الصغيرة</t>
+  </si>
+  <si>
+    <t>Llama</t>
+  </si>
+  <si>
+    <t>لاما</t>
+  </si>
+  <si>
+    <t>Logo</t>
+  </si>
+  <si>
+    <t>لوجو</t>
+  </si>
+  <si>
+    <t>Looney Tunes</t>
+  </si>
+  <si>
+    <t>لوني تونز</t>
+  </si>
+  <si>
+    <t>Lord of the Rings</t>
+  </si>
+  <si>
+    <t>سيد الخواتم</t>
+  </si>
+  <si>
+    <t>Love Live!</t>
+  </si>
+  <si>
+    <t>لوف لايف!</t>
+  </si>
+  <si>
+    <t>Lovestruck Creature</t>
+  </si>
+  <si>
+    <t>مخلوق عاشق</t>
+  </si>
+  <si>
+    <t>Lovestruck Person</t>
+  </si>
+  <si>
+    <t>الشخص المحبوب</t>
+  </si>
+  <si>
+    <t>Lucky Luke</t>
+  </si>
+  <si>
+    <t>لاكي لوك</t>
+  </si>
+  <si>
+    <t>Machine Part</t>
+  </si>
+  <si>
+    <t>جزء الآلة</t>
+  </si>
+  <si>
+    <t>Mad Father</t>
+  </si>
+  <si>
+    <t>الأب المجنون</t>
+  </si>
+  <si>
+    <t>Mad Max</t>
+  </si>
+  <si>
+    <t>ماكس المجنون</t>
+  </si>
+  <si>
+    <t>Made in Abyss</t>
+  </si>
+  <si>
+    <t>صنع في الهاوية</t>
+  </si>
+  <si>
+    <t>Madness Combat</t>
+  </si>
+  <si>
+    <t>جنون القتال</t>
+  </si>
+  <si>
+    <t>Madoka Magica</t>
+  </si>
+  <si>
+    <t>مادوكا ماجيكا</t>
+  </si>
+  <si>
+    <t>Makeup</t>
+  </si>
+  <si>
+    <t>مكياج</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>ذكر</t>
+  </si>
+  <si>
+    <t>Mao Mao Heroes of Pure Heart</t>
+  </si>
+  <si>
+    <t>ماو ماو أبطال القلب النقي</t>
+  </si>
+  <si>
+    <t>MapleStory</t>
+  </si>
+  <si>
+    <t>قصة القيقب</t>
+  </si>
+  <si>
+    <t>Marvel</t>
+  </si>
+  <si>
+    <t>أعجوبة</t>
+  </si>
+  <si>
+    <t>Mary and the Witch's Flower</t>
+  </si>
+  <si>
+    <t>ماري وزهرة الساحرة</t>
+  </si>
+  <si>
+    <t>Mascot</t>
+  </si>
+  <si>
+    <t>التميمة</t>
+  </si>
+  <si>
+    <t>Mask</t>
+  </si>
+  <si>
+    <t>القناع</t>
+  </si>
+  <si>
+    <t>Mask (full)</t>
+  </si>
+  <si>
+    <t>قناع (كامل)</t>
+  </si>
+  <si>
+    <t>Mask (functional)</t>
+  </si>
+  <si>
+    <t>قناع (وظيفي)</t>
+  </si>
+  <si>
+    <t>Mask (health)</t>
+  </si>
+  <si>
+    <t>قناع (صحي)</t>
+  </si>
+  <si>
+    <t>Mask (Minecraft mob)</t>
+  </si>
+  <si>
+    <t>قناع (غوغاء ماين كرافت)</t>
+  </si>
+  <si>
+    <t>Mass Effect</t>
+  </si>
+  <si>
+    <t>تأثير الكتلة</t>
+  </si>
+  <si>
+    <t>Masters of the Universe</t>
+  </si>
+  <si>
+    <t>سادة الكون</t>
+  </si>
+  <si>
+    <t>Mathematical Symbol</t>
+  </si>
+  <si>
+    <t>الرمز الرياضي</t>
+  </si>
+  <si>
+    <t>Mc Donalds</t>
+  </si>
+  <si>
+    <t>ماك دونالدز</t>
+  </si>
+  <si>
+    <t>Meal</t>
+  </si>
+  <si>
+    <t>وجبة</t>
+  </si>
+  <si>
+    <t>Meat</t>
+  </si>
+  <si>
+    <t>لحم</t>
+  </si>
+  <si>
+    <t>Medieval</t>
+  </si>
+  <si>
+    <t>القرون الوسطى</t>
+  </si>
+  <si>
+    <t>Medieval Tavern</t>
+  </si>
+  <si>
+    <t>حانة القرون الوسطى</t>
+  </si>
+  <si>
+    <t>Medieval Warfare Helmet</t>
+  </si>
+  <si>
+    <t>خوذة حرب القرون الوسطى</t>
+  </si>
+  <si>
+    <t>MediEvil</t>
+  </si>
+  <si>
+    <t>ميدي إيفل</t>
+  </si>
+  <si>
+    <t>Mega Evolution</t>
+  </si>
+  <si>
+    <t>ميجا التطور</t>
+  </si>
+  <si>
+    <t>Megaman</t>
+  </si>
+  <si>
+    <t>ميجامان</t>
+  </si>
+  <si>
+    <t>Megami Tensei</t>
+  </si>
+  <si>
+    <t>ميغامي تينسي</t>
+  </si>
+  <si>
+    <t>Mekakucity Actors</t>
+  </si>
+  <si>
+    <t>ممثلو ميجاكوسيتي</t>
+  </si>
+  <si>
+    <t>Meme</t>
+  </si>
+  <si>
+    <t>ميمي</t>
+  </si>
+  <si>
+    <t>Meme (Doge)</t>
+  </si>
+  <si>
+    <t>ميمي (دوجي)</t>
+  </si>
+  <si>
+    <t>Meme (Pepe)</t>
+  </si>
+  <si>
+    <t>ميمي (بيبي)</t>
+  </si>
+  <si>
+    <t>Metal</t>
+  </si>
+  <si>
+    <t>ميتال</t>
+  </si>
+  <si>
+    <t>Metal Gear</t>
+  </si>
+  <si>
+    <t>ميتال جير</t>
+  </si>
+  <si>
+    <t>Metro</t>
+  </si>
+  <si>
+    <t>مترو</t>
+  </si>
+  <si>
+    <t>Metroid</t>
+  </si>
+  <si>
+    <t>ميترويد</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>المكسيك</t>
+  </si>
+  <si>
+    <t>Mickey Mouse</t>
+  </si>
+  <si>
+    <t>ميكي ماوس</t>
+  </si>
+  <si>
+    <t>Military Equipment</t>
+  </si>
+  <si>
+    <t>معدات عسكرية</t>
+  </si>
+  <si>
+    <t>Minecraft April Fools</t>
+  </si>
+  <si>
+    <t>ماين كرافت كذبة أبريل</t>
+  </si>
+  <si>
+    <t>Minecraft Bedrock Edition</t>
+  </si>
+  <si>
+    <t>إصدار ماين كرافت بيدروك</t>
+  </si>
+  <si>
+    <t>Minecraft Dungeons</t>
+  </si>
+  <si>
+    <t>زنزانات ماين كرافت</t>
+  </si>
+  <si>
+    <t>Minecraft Earth</t>
+  </si>
+  <si>
+    <t>ماين كرافت الأرض</t>
+  </si>
+  <si>
+    <t>Minecraft Education Edition</t>
+  </si>
+  <si>
+    <t>إصدار ماين كرافت التعليمي</t>
+  </si>
+  <si>
+    <t>Minecraft Legends</t>
+  </si>
+  <si>
+    <t>أساطير ماين كرافت</t>
+  </si>
+  <si>
+    <t>Minecraft Live</t>
+  </si>
+  <si>
+    <t>ماين كرافت لايف</t>
+  </si>
+  <si>
+    <t>Minecraft Movie</t>
+  </si>
+  <si>
+    <t>فيلم ماين كرافت</t>
+  </si>
+  <si>
+    <t>Minecraft Story Mode</t>
+  </si>
+  <si>
+    <t>وضع قصة ماين كرافت</t>
+  </si>
+  <si>
+    <t>Miner</t>
+  </si>
+  <si>
+    <t>عامل المناجم</t>
+  </si>
+  <si>
+    <t>Minesweeper</t>
+  </si>
+  <si>
+    <t>كاسحة ألغام</t>
+  </si>
+  <si>
+    <t>Miraculous: Tales of Ladybug &amp; Cat Noir</t>
+  </si>
+  <si>
+    <t>ميراكيلوس حكايات الدعسوقة والقط الأسود</t>
+  </si>
+  <si>
+    <t>Mirai Nikki (Future Diary)</t>
+  </si>
+  <si>
+    <t>ميراي نيكي (يوميات المستقبل)</t>
+  </si>
+  <si>
+    <t>Mirror's Edge</t>
+  </si>
+  <si>
+    <t>حافة المرآة</t>
+  </si>
+  <si>
+    <t>Miss Kobayashi's Dragon Maid</t>
+  </si>
+  <si>
+    <t>خادمة التنين الآنسة كوباياشي</t>
+  </si>
+  <si>
+    <t>Mizuno's Resource Pack</t>
+  </si>
+  <si>
+    <t>حزمة موارد ميزونو</t>
+  </si>
+  <si>
+    <t>Moana</t>
+  </si>
+  <si>
+    <t>موانا</t>
+  </si>
+  <si>
+    <t>Modern Warfare Helmet</t>
+  </si>
+  <si>
+    <t>خوذة الحرب الحديثة</t>
+  </si>
+  <si>
+    <t>Money</t>
+  </si>
+  <si>
+    <t>المال</t>
+  </si>
+  <si>
+    <t>Money Heist</t>
+  </si>
+  <si>
+    <t>سرقة المال</t>
+  </si>
+  <si>
+    <t>Monitor</t>
+  </si>
+  <si>
+    <t>مونيتور</t>
+  </si>
+  <si>
+    <t>Monkey Island</t>
+  </si>
+  <si>
+    <t>جزيرة القرود</t>
+  </si>
+  <si>
+    <t>Monocle</t>
+  </si>
+  <si>
+    <t>مونوكل</t>
+  </si>
+  <si>
+    <t>Monster High</t>
+  </si>
+  <si>
+    <t>مونستر هاي</t>
+  </si>
+  <si>
+    <t>Monster Hunter</t>
+  </si>
+  <si>
+    <t>مونستر هانتر</t>
+  </si>
+  <si>
+    <t>Monsters Inc</t>
+  </si>
+  <si>
+    <t>مونسترز إنك</t>
+  </si>
+  <si>
+    <t>Moomin</t>
+  </si>
+  <si>
+    <t>مومين</t>
+  </si>
+  <si>
+    <t>Mortal Kombat</t>
+  </si>
+  <si>
+    <t>مورتال كومبات</t>
+  </si>
+  <si>
+    <t>Mounts of Mayhem</t>
+  </si>
+  <si>
+    <t>جبال الفوضى</t>
+  </si>
+  <si>
+    <t>Mouthwashing</t>
+  </si>
+  <si>
+    <t>غسيل الفم</t>
+  </si>
+  <si>
+    <t>Mr. Bean</t>
+  </si>
+  <si>
+    <t>مستر بين</t>
+  </si>
+  <si>
+    <t>Mulan</t>
+  </si>
+  <si>
+    <t>مولان</t>
+  </si>
+  <si>
+    <t>Mundo Gaturro</t>
+  </si>
+  <si>
+    <t>موندو جاتورو</t>
+  </si>
+  <si>
+    <t>Muppets</t>
+  </si>
+  <si>
+    <t>الدمى المتحركة</t>
+  </si>
+  <si>
+    <t>Murder Drones</t>
+  </si>
+  <si>
+    <t>طائرات القتل بدون طيار</t>
+  </si>
+  <si>
+    <t>Mushroom</t>
+  </si>
+  <si>
+    <t>الفطر</t>
+  </si>
+  <si>
+    <t>Mushroom (Biome)</t>
+  </si>
+  <si>
+    <t>فطر (منطقة حيوية)</t>
+  </si>
+  <si>
+    <t>Mushroom (Headwear)</t>
+  </si>
+  <si>
+    <t>فطر (غطاء الرأس)</t>
+  </si>
+  <si>
+    <t>Music</t>
+  </si>
+  <si>
+    <t>موسيقى</t>
+  </si>
+  <si>
+    <t>Mustache</t>
+  </si>
+  <si>
+    <t>شارب</t>
+  </si>
+  <si>
+    <t>My Deer Friend Nokotan</t>
+  </si>
+  <si>
+    <t>صديقي الغزال نوكوتان</t>
+  </si>
+  <si>
+    <t>My Hero Academia</t>
+  </si>
+  <si>
+    <t>أكاديميتي بطلي</t>
+  </si>
+  <si>
+    <t>My Little Pony</t>
+  </si>
+  <si>
+    <t>مهرى الصغير</t>
+  </si>
+  <si>
+    <t>My Neighbor Totoro</t>
+  </si>
+  <si>
+    <t>جارتي توتورو</t>
+  </si>
+  <si>
+    <t>My Singing Monsters</t>
+  </si>
+  <si>
+    <t>وحوشي المغنية</t>
+  </si>
+  <si>
+    <t>Naruto</t>
+  </si>
+  <si>
+    <t>ناروتو</t>
+  </si>
+  <si>
+    <t>Nausicaä of the Valley of the Wind</t>
+  </si>
+  <si>
+    <t>ناوسيكا وادي الرياح</t>
+  </si>
+  <si>
+    <t>Nekopara</t>
+  </si>
+  <si>
+    <t>نيكوبارا</t>
+  </si>
+  <si>
+    <t>Neon Genesis Evangelion</t>
+  </si>
+  <si>
+    <t>نيون جينيسيس إيفانجيليون</t>
+  </si>
+  <si>
+    <t>Nether (inspired)</t>
+  </si>
+  <si>
+    <t>نيذر (مستوحاة)</t>
+  </si>
+  <si>
+    <t>Nether (vanilla)</t>
+  </si>
+  <si>
+    <t>نيذر (فانيلا)</t>
+  </si>
+  <si>
+    <t>Neutral Creature</t>
+  </si>
+  <si>
+    <t>مخلوق محايد</t>
+  </si>
+  <si>
+    <t>Neutral Person</t>
+  </si>
+  <si>
+    <t>شخص محايد</t>
+  </si>
+  <si>
+    <t>New Year's Eve</t>
+  </si>
+  <si>
+    <t>ليلة رأس السنة الجديدة</t>
+  </si>
+  <si>
+    <t>NieR: Automata</t>
+  </si>
+  <si>
+    <t>نير: أوتوماتا</t>
+  </si>
+  <si>
+    <t>Night in the Woods</t>
+  </si>
+  <si>
+    <t>ليلة في الغابة</t>
+  </si>
+  <si>
+    <t>Nightmare Before Christmas</t>
+  </si>
+  <si>
+    <t>كابوس قبل عيد الميلاد</t>
+  </si>
+  <si>
+    <t>Ninja Turtles</t>
+  </si>
+  <si>
+    <t>سلاحف النينجا</t>
+  </si>
+  <si>
+    <t>No Game No Life</t>
+  </si>
+  <si>
+    <t>لا لعبة لا حياة</t>
+  </si>
+  <si>
+    <t>No Man's Sky</t>
+  </si>
+  <si>
+    <t>نو مانز سكاي</t>
+  </si>
+  <si>
+    <t>Noel's House Party</t>
+  </si>
+  <si>
+    <t>حفلة منزل نويل</t>
+  </si>
+  <si>
+    <t>Norse Mythology</t>
+  </si>
+  <si>
+    <t>الأساطير الإسكندنافية</t>
+  </si>
+  <si>
+    <t>NPC (Education Edition)</t>
+  </si>
+  <si>
+    <t>NPC (إصدار تعليمي)</t>
+  </si>
+  <si>
+    <t>Nuclear Fallout</t>
+  </si>
+  <si>
+    <t>التداعيات النووية</t>
+  </si>
+  <si>
+    <t>Nuclear Throne</t>
+  </si>
+  <si>
+    <t>العرش النووي</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>العدد</t>
+  </si>
+  <si>
+    <t>Nut</t>
+  </si>
+  <si>
+    <t>الجوز</t>
+  </si>
+  <si>
+    <t>Ocean</t>
+  </si>
+  <si>
+    <t>المحيط</t>
+  </si>
+  <si>
+    <t>Octodad</t>
+  </si>
+  <si>
+    <t>أوكتوداد</t>
+  </si>
+  <si>
+    <t>Oddworld</t>
+  </si>
+  <si>
+    <t>أودوورلد</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>أوف</t>
+  </si>
+  <si>
+    <t>Officer Cap</t>
+  </si>
+  <si>
+    <t>الضابط كاب</t>
+  </si>
+  <si>
+    <t>Oggy and the Cockroaches</t>
+  </si>
+  <si>
+    <t>أوجي والصراصير</t>
+  </si>
+  <si>
+    <t>Okegom</t>
+  </si>
+  <si>
+    <t>أوكيغوم</t>
+  </si>
+  <si>
+    <t>Old</t>
+  </si>
+  <si>
+    <t>أوليفر</t>
+  </si>
+  <si>
+    <t>Oliver &amp; Co</t>
+  </si>
+  <si>
+    <t>أوليفر وشركاه</t>
+  </si>
+  <si>
+    <t>Omori</t>
+  </si>
+  <si>
+    <t>أوموري</t>
+  </si>
+  <si>
+    <t>One Piece</t>
+  </si>
+  <si>
+    <t>ون بيس</t>
+  </si>
+  <si>
+    <t>One Punch Man</t>
+  </si>
+  <si>
+    <t>ون بانش مان</t>
+  </si>
+  <si>
+    <t>OneShot</t>
+  </si>
+  <si>
+    <t>ون شوت</t>
+  </si>
+  <si>
+    <t>Ongezellig</t>
+  </si>
+  <si>
+    <t>أونجيزليج</t>
+  </si>
+  <si>
+    <t>Onii-chan wa Oshimai</t>
+  </si>
+  <si>
+    <t>أوني تشان وأوشيماي</t>
+  </si>
+  <si>
+    <t>Open Source Objects</t>
+  </si>
+  <si>
+    <t>كائنات مفتوحة المصدر</t>
+  </si>
+  <si>
+    <t>Orb</t>
+  </si>
+  <si>
+    <t>الجرم السماوي</t>
+  </si>
+  <si>
+    <t>Orc</t>
+  </si>
+  <si>
+    <t>أورك</t>
+  </si>
+  <si>
+    <t>Ore</t>
+  </si>
+  <si>
+    <t>Organs and Bodyparts</t>
+  </si>
+  <si>
+    <t>الأعضاء وأجزاء الجسم</t>
+  </si>
+  <si>
+    <t>Other Headgear</t>
+  </si>
+  <si>
+    <t>أغطية رأس أخرى</t>
+  </si>
+  <si>
+    <t>Other Illumination</t>
+  </si>
+  <si>
+    <t>إضاءة أخرى</t>
+  </si>
+  <si>
+    <t>Other Mystic Creature</t>
+  </si>
+  <si>
+    <t>مخلوقات صوفية أخرى</t>
+  </si>
+  <si>
+    <t>Outer Layer Block</t>
+  </si>
+  <si>
+    <t>كتلة الطبقة الخارجية</t>
+  </si>
+  <si>
+    <t>Overlord</t>
+  </si>
+  <si>
+    <t>أفرلورد</t>
+  </si>
+  <si>
+    <t>Overwatch</t>
+  </si>
+  <si>
+    <t>أوفرواتش</t>
+  </si>
+  <si>
+    <t>Pac-Man</t>
+  </si>
+  <si>
+    <t>باك مان</t>
+  </si>
+  <si>
+    <t>Pacific Rim</t>
+  </si>
+  <si>
+    <t>باسيفيك ريم</t>
+  </si>
+  <si>
+    <t>Pacifier</t>
+  </si>
+  <si>
+    <t>مصاصة</t>
+  </si>
+  <si>
+    <t>Painted Face</t>
+  </si>
+  <si>
+    <t>الوجه الملون</t>
+  </si>
+  <si>
+    <t>Pale Garden (inspired)</t>
+  </si>
+  <si>
+    <t>حديقة شاحبة (مستوحاة)</t>
+  </si>
+  <si>
+    <t>Panda Bear</t>
+  </si>
+  <si>
+    <t>دب الباندا</t>
+  </si>
+  <si>
+    <t>Pans Labyrinth</t>
+  </si>
+  <si>
+    <t>متاهة المقالي</t>
+  </si>
+  <si>
+    <t>Papers Please</t>
+  </si>
+  <si>
+    <t>أوراق من فضلك</t>
+  </si>
+  <si>
+    <t>PaRappa the Rapper</t>
+  </si>
+  <si>
+    <t>مغني الراب بارابا</t>
+  </si>
+  <si>
+    <t>Party</t>
+  </si>
+  <si>
+    <t>حفلة</t>
+  </si>
+  <si>
+    <t>Pastries and Sweets</t>
+  </si>
+  <si>
+    <t>معجنات وحلويات</t>
+  </si>
+  <si>
+    <t>Paw Patrol</t>
+  </si>
+  <si>
+    <t>باو باترول</t>
+  </si>
+  <si>
+    <t>Payday</t>
+  </si>
+  <si>
+    <t>يوم الدفع</t>
+  </si>
+  <si>
+    <t>Peanuts (Snoopy)</t>
+  </si>
+  <si>
+    <t>بيناتس (سنوبي)</t>
+  </si>
+  <si>
+    <t>Penguin</t>
+  </si>
+  <si>
+    <t>البطريق</t>
+  </si>
+  <si>
+    <t>Peppa Pig</t>
+  </si>
+  <si>
+    <t>الخنزير بيبا</t>
+  </si>
+  <si>
+    <t>Periodic Table of Elements</t>
+  </si>
+  <si>
+    <t>الجدول الدوري للعناصر</t>
+  </si>
+  <si>
+    <t>Persona</t>
+  </si>
+  <si>
+    <t>بيرسونا</t>
+  </si>
+  <si>
+    <t>Pet Equipment</t>
+  </si>
+  <si>
+    <t>معدات الحيوانات الأليفة</t>
+  </si>
+  <si>
+    <t>Peter Pan</t>
+  </si>
+  <si>
+    <t>بيتر بان</t>
+  </si>
+  <si>
+    <t>Phantom</t>
+  </si>
+  <si>
+    <t>فانتوم</t>
+  </si>
+  <si>
+    <t>Phineas &amp; Ferb</t>
+  </si>
+  <si>
+    <t>فينياس وفيرب</t>
+  </si>
+  <si>
+    <t>Pig</t>
+  </si>
+  <si>
+    <t>خنزير</t>
+  </si>
+  <si>
+    <t>Piglin</t>
+  </si>
+  <si>
+    <t>بيجلن</t>
+  </si>
+  <si>
+    <t>Pigman</t>
+  </si>
+  <si>
+    <t>بيجمان الخنزير</t>
+  </si>
+  <si>
+    <t>Pikmin</t>
+  </si>
+  <si>
+    <t>بيكمين</t>
+  </si>
+  <si>
+    <t>Pingu</t>
+  </si>
+  <si>
+    <t>بينجو</t>
+  </si>
+  <si>
+    <t>Pink Panther</t>
+  </si>
+  <si>
+    <t>النمر الوردي</t>
+  </si>
+  <si>
+    <t>Pinky and the Brain</t>
+  </si>
+  <si>
+    <t>بينكي والدماغ</t>
+  </si>
+  <si>
+    <t>Pinocchio</t>
+  </si>
+  <si>
+    <t>بينوكيو</t>
+  </si>
+  <si>
+    <t>Pirates of the Caribbean</t>
+  </si>
+  <si>
+    <t>قراصنة الكاريبي</t>
+  </si>
+  <si>
+    <t>Pizza Tower</t>
+  </si>
+  <si>
+    <t>برج البيتزا</t>
+  </si>
+  <si>
+    <t>Planet</t>
+  </si>
+  <si>
+    <t>بلانيت</t>
+  </si>
+  <si>
+    <t>Plants vs. Zombies</t>
+  </si>
+  <si>
+    <t>بلانتس ضد الزومبي</t>
+  </si>
+  <si>
+    <t>Playerunknown's Battlegrounds</t>
+  </si>
+  <si>
+    <t>ساحات قتال اللاعبين المعروفين</t>
+  </si>
+  <si>
+    <t>Pocahontas</t>
+  </si>
+  <si>
+    <t>بوكاهونتاس</t>
+  </si>
+  <si>
+    <t>Pokeball</t>
+  </si>
+  <si>
+    <t>بوكيبول</t>
+  </si>
+  <si>
+    <t>Pokemon</t>
+  </si>
+  <si>
+    <t>بوكيمون</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 1</t>
+  </si>
+  <si>
+    <t>بوكيمون الجيل 1</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 2</t>
+  </si>
+  <si>
+    <t>بوكيمون الجيل 2</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 3</t>
+  </si>
+  <si>
+    <t>بوكيمون الجيل 3</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 4</t>
+  </si>
+  <si>
+    <t>بوكيمون الجيل 4</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 5</t>
+  </si>
+  <si>
+    <t>بوكيمون الجيل 5</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 6</t>
+  </si>
+  <si>
+    <t>بوكيمون الجيل 6</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 7</t>
+  </si>
+  <si>
+    <t>بوكيمون الجيل 7</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 8</t>
+  </si>
+  <si>
+    <t>بوكيمون الجيل 8</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 9</t>
+  </si>
+  <si>
+    <t>جيل بوكيمون بوكيمون 9</t>
+  </si>
+  <si>
+    <t>Pokemon Items</t>
+  </si>
+  <si>
+    <t>عناصر البوكيمون</t>
+  </si>
+  <si>
+    <t>Pokemon Trainer</t>
+  </si>
+  <si>
+    <t>مدرب بوكيمون</t>
+  </si>
+  <si>
+    <t>Polar Bear</t>
+  </si>
+  <si>
+    <t>الدب القطبي</t>
+  </si>
+  <si>
+    <t>Police</t>
+  </si>
+  <si>
+    <t>الشرطة</t>
+  </si>
+  <si>
+    <t>Pom Poko</t>
+  </si>
+  <si>
+    <t>بوم بوكو</t>
+  </si>
+  <si>
+    <t>Ponyo</t>
+  </si>
+  <si>
+    <t>بونيو</t>
+  </si>
+  <si>
+    <t>Pop Team Epic</t>
+  </si>
+  <si>
+    <t>ملحمة فريق البوب تيم</t>
+  </si>
+  <si>
+    <t>POPGOES</t>
+  </si>
+  <si>
+    <t>بوبغوز</t>
+  </si>
+  <si>
+    <t>Poppy Playtime</t>
+  </si>
+  <si>
+    <t>بوبي بلاي تايم</t>
+  </si>
+  <si>
+    <t>Porco Rosso</t>
+  </si>
+  <si>
+    <t>بوركو روسو</t>
+  </si>
+  <si>
+    <t>Portal</t>
+  </si>
+  <si>
+    <t>بورتال</t>
+  </si>
+  <si>
+    <t>Postman Pat</t>
+  </si>
+  <si>
+    <t>بوستمان بات</t>
+  </si>
+  <si>
+    <t>Power Rangers</t>
+  </si>
+  <si>
+    <t>باور رينجرز</t>
+  </si>
+  <si>
+    <t>Powerpuff Girls</t>
+  </si>
+  <si>
+    <t>باورباف جيرلز</t>
+  </si>
+  <si>
+    <t>Predator</t>
+  </si>
+  <si>
+    <t>بريداتور</t>
+  </si>
+  <si>
+    <t>Present</t>
+  </si>
+  <si>
+    <t>الحاضر</t>
+  </si>
+  <si>
+    <t>Pride</t>
+  </si>
+  <si>
+    <t>الكبرياء</t>
+  </si>
+  <si>
+    <t>Primate</t>
+  </si>
+  <si>
+    <t>الرئيسيات</t>
+  </si>
+  <si>
+    <t>Princess Mononoke</t>
+  </si>
+  <si>
+    <t>الأميرة مونونوكي</t>
+  </si>
+  <si>
+    <t>Prof Layton</t>
+  </si>
+  <si>
+    <t>البروفيسور لايتون</t>
+  </si>
+  <si>
+    <t>Pumpkin</t>
+  </si>
+  <si>
+    <t>اليقطين</t>
+  </si>
+  <si>
+    <t>Pumpkin (Lit)</t>
+  </si>
+  <si>
+    <t>اليقطين (مضاءة)</t>
+  </si>
+  <si>
+    <t>Punctuation Mark</t>
+  </si>
+  <si>
+    <t>علامة الترقيم</t>
+  </si>
+  <si>
+    <t>Quake</t>
+  </si>
+  <si>
+    <t>الزلزال</t>
+  </si>
+  <si>
+    <t>R.E.P.O.</t>
+  </si>
+  <si>
+    <t>Rabbit</t>
+  </si>
+  <si>
+    <t>أرنب</t>
+  </si>
+  <si>
+    <t>Railway</t>
+  </si>
+  <si>
+    <t>السكك الحديدية</t>
+  </si>
+  <si>
+    <t>Rain World</t>
+  </si>
+  <si>
+    <t>عالم المطر</t>
+  </si>
+  <si>
+    <t>Ratatouille</t>
+  </si>
+  <si>
+    <t>راتاتاتوي</t>
+  </si>
+  <si>
+    <t>Ratchet &amp; Clank</t>
+  </si>
+  <si>
+    <t>راتشيت وكلانك</t>
+  </si>
+  <si>
+    <t>Re:Creators</t>
+  </si>
+  <si>
+    <t>إعادة:المبدعين</t>
+  </si>
+  <si>
+    <t>Re:Zero</t>
+  </si>
+  <si>
+    <t>إعادة:زيرو</t>
+  </si>
+  <si>
+    <t>Realm of the Mad God</t>
+  </si>
+  <si>
+    <t>عالم الإله المجنون</t>
+  </si>
+  <si>
+    <t>Red Dead Redemption</t>
+  </si>
+  <si>
+    <t>Red Riding Hood</t>
+  </si>
+  <si>
+    <t>ذات الرداء الأحمر</t>
+  </si>
+  <si>
+    <t>Redstone</t>
+  </si>
+  <si>
+    <t>ريدستون</t>
+  </si>
+  <si>
+    <t>Regional Form Pokemon</t>
+  </si>
+  <si>
+    <t>بوكيمون الشكل الإقليمي</t>
+  </si>
+  <si>
+    <t>Regretavator</t>
+  </si>
+  <si>
+    <t>ريجريتافيتور</t>
+  </si>
+  <si>
+    <t>Regular Show</t>
+  </si>
+  <si>
+    <t>عرض عادي</t>
+  </si>
+  <si>
+    <t>Religion</t>
+  </si>
+  <si>
+    <t>الدين</t>
+  </si>
+  <si>
+    <t>Reptile</t>
+  </si>
+  <si>
+    <t>الزواحف</t>
+  </si>
+  <si>
+    <t>Rescue Rangers</t>
+  </si>
+  <si>
+    <t>حراس الإنقاذ</t>
+  </si>
+  <si>
+    <t>Resident Evil</t>
+  </si>
+  <si>
+    <t>الشر المقيم</t>
+  </si>
+  <si>
+    <t>Rhythm Heaven</t>
+  </si>
+  <si>
+    <t>إيقاع السماء</t>
+  </si>
+  <si>
+    <t>Ribbon</t>
+  </si>
+  <si>
+    <t>الشريط</t>
+  </si>
+  <si>
+    <t>Rick and Morty</t>
+  </si>
+  <si>
+    <t>ريك ومورتي</t>
+  </si>
+  <si>
+    <t>Risk of Rain</t>
+  </si>
+  <si>
+    <t>خطر المطر</t>
+  </si>
+  <si>
+    <t>Rival of Aether</t>
+  </si>
+  <si>
+    <t>منافس الأثير</t>
+  </si>
+  <si>
+    <t>River</t>
+  </si>
+  <si>
+    <t>ريفر</t>
+  </si>
+  <si>
+    <t>Riverdale</t>
+  </si>
+  <si>
+    <t>ريفرديل</t>
+  </si>
+  <si>
+    <t>Robin Hood</t>
+  </si>
+  <si>
+    <t>روبن هود</t>
+  </si>
+  <si>
+    <t>Roblox</t>
+  </si>
+  <si>
+    <t>روبلوكس</t>
+  </si>
+  <si>
+    <t>RoboCop</t>
+  </si>
+  <si>
+    <t>الشرطي الآلي</t>
+  </si>
+  <si>
+    <t>Robot</t>
+  </si>
+  <si>
+    <t>روبوت</t>
+  </si>
+  <si>
+    <t>Rocky</t>
+  </si>
+  <si>
+    <t>روكي</t>
+  </si>
+  <si>
+    <t>Rocky Horror Picture Show</t>
+  </si>
+  <si>
+    <t>عرض صور روكي الرعب الصخري</t>
+  </si>
+  <si>
+    <t>Rodent</t>
+  </si>
+  <si>
+    <t>قارض</t>
+  </si>
+  <si>
+    <t>Rotated Entity</t>
+  </si>
+  <si>
+    <t>الكيان الدوار</t>
+  </si>
+  <si>
+    <t>Royal Headgear</t>
+  </si>
+  <si>
+    <t>غطاء الرأس الملكي</t>
+  </si>
+  <si>
+    <t>Rune</t>
+  </si>
+  <si>
+    <t>رون</t>
+  </si>
+  <si>
+    <t>Runescape</t>
+  </si>
+  <si>
+    <t>رونسكيب</t>
+  </si>
+  <si>
+    <t>RWBY</t>
+  </si>
+  <si>
+    <t>روبي</t>
+  </si>
+  <si>
+    <t>Sackboy: A Big Adventure</t>
+  </si>
+  <si>
+    <t>ساك بوي مغامرة كبيرة</t>
+  </si>
+  <si>
+    <t>Sad Creature</t>
+  </si>
+  <si>
+    <t>مخلوق حزين</t>
+  </si>
+  <si>
+    <t>Sad Person</t>
+  </si>
+  <si>
+    <t>شخص حزين</t>
+  </si>
+  <si>
+    <t>Safari (Other)</t>
+  </si>
+  <si>
+    <t>سفاري (أخرى)</t>
+  </si>
+  <si>
+    <t>Saga of Tanya the Evil</t>
+  </si>
+  <si>
+    <t>ملحمة تانيا الشريرة</t>
+  </si>
+  <si>
+    <t>Sailor Moon</t>
+  </si>
+  <si>
+    <t>سايلر مون</t>
+  </si>
+  <si>
+    <t>Sakurasou no Pet na Kanojo</t>
+  </si>
+  <si>
+    <t>ساكوراسو نو بيت نا كانوجو</t>
+  </si>
+  <si>
+    <t>Samurai Helmet</t>
+  </si>
+  <si>
+    <t>خوذة الساموراي</t>
+  </si>
+  <si>
+    <t>Satisfactory</t>
+  </si>
+  <si>
+    <t>مرضية</t>
+  </si>
+  <si>
+    <t>Saw</t>
+  </si>
+  <si>
+    <t>المنشار</t>
+  </si>
+  <si>
+    <t>Scarf</t>
+  </si>
+  <si>
+    <t>وشاح</t>
+  </si>
+  <si>
+    <t>Scooby-Doo</t>
+  </si>
+  <si>
+    <t>سكوبي دو</t>
+  </si>
+  <si>
+    <t>SCP Containment Breach</t>
+  </si>
+  <si>
+    <t>خرق احتواء SCP</t>
+  </si>
+  <si>
+    <t>Scream</t>
+  </si>
+  <si>
+    <t>الصرخة</t>
+  </si>
+  <si>
+    <t>Scribblenauts</t>
+  </si>
+  <si>
+    <t>سكريبلينوتس</t>
+  </si>
+  <si>
+    <t>Sea of Thieves</t>
+  </si>
+  <si>
+    <t>بحر اللصوص</t>
+  </si>
+  <si>
+    <t>Seafarer</t>
+  </si>
+  <si>
+    <t>Seraph of the End</t>
+  </si>
+  <si>
+    <t>سيراف أوف ذا إند</t>
+  </si>
+  <si>
+    <t>Serial Experiments Lain</t>
+  </si>
+  <si>
+    <t>التجارب المتسلسلة لايين</t>
+  </si>
+  <si>
+    <t>Sesame Street</t>
+  </si>
+  <si>
+    <t>شارع السمسم</t>
+  </si>
+  <si>
+    <t>Seven Deadly Sins</t>
+  </si>
+  <si>
+    <t>الخطايا السبع المميتة</t>
+  </si>
+  <si>
+    <t>Shadow of the Colossus</t>
+  </si>
+  <si>
+    <t>ظل العملاق</t>
+  </si>
+  <si>
+    <t>Shadows of Mordor</t>
+  </si>
+  <si>
+    <t>ظلال موردور</t>
+  </si>
+  <si>
+    <t>Sheep</t>
+  </si>
+  <si>
+    <t>خروف</t>
+  </si>
+  <si>
+    <t>Sherlock Holmes</t>
+  </si>
+  <si>
+    <t>شيرلوك هولمز</t>
+  </si>
+  <si>
+    <t>Shigatsu wa Kimi no Uso</t>
+  </si>
+  <si>
+    <t>شيغاتسو وا كيمي نو أوسو</t>
+  </si>
+  <si>
+    <t>Shimoneta</t>
+  </si>
+  <si>
+    <t>شيمونيتا</t>
+  </si>
+  <si>
+    <t>Shiny Pokemon</t>
+  </si>
+  <si>
+    <t>بوكيمون لامعة</t>
+  </si>
+  <si>
+    <t>Shipping</t>
+  </si>
+  <si>
+    <t>الشحن</t>
+  </si>
+  <si>
+    <t>Shovel Knight</t>
+  </si>
+  <si>
+    <t>شوفيل نايت</t>
+  </si>
+  <si>
+    <t>Shrek</t>
+  </si>
+  <si>
+    <t>شريك</t>
+  </si>
+  <si>
+    <t>Shulker</t>
+  </si>
+  <si>
+    <t>شولكر</t>
+  </si>
+  <si>
+    <t>Silent Hill</t>
+  </si>
+  <si>
+    <t>التل الصامت</t>
+  </si>
+  <si>
+    <t>SilvaGunner</t>
+  </si>
+  <si>
+    <t>سيلفا غنر</t>
+  </si>
+  <si>
+    <t>Simpsons</t>
+  </si>
+  <si>
+    <t>سيمبسونز</t>
+  </si>
+  <si>
+    <t>Skeleton</t>
+  </si>
+  <si>
+    <t>الهيكل العظمي</t>
+  </si>
+  <si>
+    <t>Skeleton (Vanilla)</t>
+  </si>
+  <si>
+    <t>هيكل عظمي (فانيلا)</t>
+  </si>
+  <si>
+    <t>Skeptical Creature</t>
+  </si>
+  <si>
+    <t>مخلوق متشكك</t>
+  </si>
+  <si>
+    <t>Skeptical Person</t>
+  </si>
+  <si>
+    <t>شخص متشكك</t>
+  </si>
+  <si>
+    <t>Skullgirls</t>
+  </si>
+  <si>
+    <t>فتيات الجمجمة</t>
+  </si>
+  <si>
+    <t>Skyrim</t>
+  </si>
+  <si>
+    <t>سكاي ريم</t>
+  </si>
+  <si>
+    <t>Sleeping Beauty</t>
+  </si>
+  <si>
+    <t>الجميلة النائمة</t>
+  </si>
+  <si>
+    <t>Sleeping Creature</t>
+  </si>
+  <si>
+    <t>مخلوق نائم</t>
+  </si>
+  <si>
+    <t>Sleeping Person</t>
+  </si>
+  <si>
+    <t>شخص نائم</t>
+  </si>
+  <si>
+    <t>Sliced</t>
+  </si>
+  <si>
+    <t>شرائح</t>
+  </si>
+  <si>
+    <t>Slime</t>
+  </si>
+  <si>
+    <t>الوحل</t>
+  </si>
+  <si>
+    <t>Slime (Vanilla)</t>
+  </si>
+  <si>
+    <t>سلايم (فانيليا)</t>
+  </si>
+  <si>
+    <t>Slime Rancher</t>
+  </si>
+  <si>
+    <t>سلايم رانشر الوحل</t>
+  </si>
+  <si>
+    <t>Slimefun</t>
+  </si>
+  <si>
+    <t>سلايم فن</t>
+  </si>
+  <si>
+    <t>Sly Cooper</t>
+  </si>
+  <si>
+    <t>سلايم كوبر</t>
+  </si>
+  <si>
+    <t>Smite Gods</t>
+  </si>
+  <si>
+    <t>سمايت جودز</t>
+  </si>
+  <si>
+    <t>Smoking</t>
+  </si>
+  <si>
+    <t>سموكينغ</t>
+  </si>
+  <si>
+    <t>Smurfs</t>
+  </si>
+  <si>
+    <t>السنافر</t>
+  </si>
+  <si>
+    <t>Snow Fight</t>
+  </si>
+  <si>
+    <t>قتال الثلج</t>
+  </si>
+  <si>
+    <t>Snow Sculpture</t>
+  </si>
+  <si>
+    <t>نحت الثلج</t>
+  </si>
+  <si>
+    <t>Snow White and the Seven Dwarfs</t>
+  </si>
+  <si>
+    <t>بياض الثلج والأقزام السبعة</t>
+  </si>
+  <si>
+    <t>Songs of War</t>
+  </si>
+  <si>
+    <t>أغاني الحرب</t>
+  </si>
+  <si>
+    <t>Sonic the Hedgehog</t>
+  </si>
+  <si>
+    <t>سونيك القنفذ</t>
+  </si>
+  <si>
+    <t>Soul Knight</t>
+  </si>
+  <si>
+    <t>فارس الروح</t>
+  </si>
+  <si>
+    <t>South Park</t>
+  </si>
+  <si>
+    <t>ساوث بارك</t>
+  </si>
+  <si>
+    <t>Space Travel</t>
+  </si>
+  <si>
+    <t>السفر في الفضاء</t>
+  </si>
+  <si>
+    <t>Spawn Egg</t>
+  </si>
+  <si>
+    <t>بيضة تفرخ</t>
+  </si>
+  <si>
+    <t>Spawner</t>
+  </si>
+  <si>
+    <t>سبونر</t>
+  </si>
+  <si>
+    <t>Spelunky</t>
+  </si>
+  <si>
+    <t>سبيلنكي</t>
+  </si>
+  <si>
+    <t>Spider</t>
+  </si>
+  <si>
+    <t>العنكبوت</t>
+  </si>
+  <si>
+    <t>Spider (Vanilla)</t>
+  </si>
+  <si>
+    <t>العنكبوت (فانيلا)</t>
+  </si>
+  <si>
+    <t>Spiderman</t>
+  </si>
+  <si>
+    <t>سبايدرمان</t>
+  </si>
+  <si>
+    <t>Spirited Away</t>
+  </si>
+  <si>
+    <t>سبيريتد أواي</t>
+  </si>
+  <si>
+    <t>Splatoon</t>
+  </si>
+  <si>
+    <t>سبلاتون</t>
+  </si>
+  <si>
+    <t>Spongebob Squarepants</t>
+  </si>
+  <si>
+    <t>سبونج بوب سكوير بانتس</t>
+  </si>
+  <si>
+    <t>Spooky's Jump Scare Mansion</t>
+  </si>
+  <si>
+    <t>قصر سبوكي المخيف القافز المخيف</t>
+  </si>
+  <si>
+    <t>Spore</t>
+  </si>
+  <si>
+    <t>أبواغ</t>
+  </si>
+  <si>
+    <t>Sport</t>
+  </si>
+  <si>
+    <t>الرياضة</t>
+  </si>
+  <si>
+    <t>Spreads</t>
+  </si>
+  <si>
+    <t>سبريدز</t>
+  </si>
+  <si>
+    <t>Spring to Life</t>
+  </si>
+  <si>
+    <t>سبرينغ تو لايف</t>
+  </si>
+  <si>
+    <t>Spy x Family</t>
+  </si>
+  <si>
+    <t>جاسوس × العائلة</t>
+  </si>
+  <si>
+    <t>Spyro</t>
+  </si>
+  <si>
+    <t>سبيرو</t>
+  </si>
+  <si>
+    <t>Squid Game</t>
+  </si>
+  <si>
+    <t>لعبة الحبار</t>
+  </si>
+  <si>
+    <t>St. Patrick's Day</t>
+  </si>
+  <si>
+    <t>عيد القديس باتريك</t>
+  </si>
+  <si>
+    <t>StackUp</t>
+  </si>
+  <si>
+    <t>ستاك أب</t>
+  </si>
+  <si>
+    <t>Star Fox</t>
+  </si>
+  <si>
+    <t>ستار فوكس</t>
+  </si>
+  <si>
+    <t>Star Trek</t>
+  </si>
+  <si>
+    <t>ستار تريك</t>
+  </si>
+  <si>
+    <t>Star vs the Forces of Evil</t>
+  </si>
+  <si>
+    <t>ستار ضد قوى الشر</t>
+  </si>
+  <si>
+    <t>Star Wars</t>
+  </si>
+  <si>
+    <t>حرب النجوم</t>
+  </si>
+  <si>
+    <t>Star Wars Helmet</t>
+  </si>
+  <si>
+    <t>خوذة حرب النجوم</t>
+  </si>
+  <si>
+    <t>Star Wars Trooper Helmet</t>
+  </si>
+  <si>
+    <t>خوذة جنود حرب النجوم</t>
+  </si>
+  <si>
+    <t>Starbucks</t>
+  </si>
+  <si>
+    <t>ستاربكس</t>
+  </si>
+  <si>
+    <t>StarCraft</t>
+  </si>
+  <si>
+    <t>ستار كرافت</t>
+  </si>
+  <si>
+    <t>Stardew Valley</t>
+  </si>
+  <si>
+    <t>وادي ستارديو</t>
+  </si>
+  <si>
+    <t>Starter Pokemon</t>
+  </si>
+  <si>
+    <t>بوكيمون المبتدئين</t>
+  </si>
+  <si>
+    <t>Stationery</t>
+  </si>
+  <si>
+    <t>قرطاسية</t>
+  </si>
+  <si>
+    <t>Steampunk</t>
+  </si>
+  <si>
+    <t>ستيمبانك</t>
+  </si>
+  <si>
+    <t>Steins;Gate</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
+    <t>ستيف</t>
+  </si>
+  <si>
+    <t>Steven Universe</t>
+  </si>
+  <si>
+    <t>ستيفن يونيفرس</t>
+  </si>
+  <si>
+    <t>Stone</t>
+  </si>
+  <si>
+    <t>ستون</t>
+  </si>
+  <si>
+    <t>Storage (other)</t>
+  </si>
+  <si>
+    <t>تخزين (أخرى)</t>
+  </si>
+  <si>
+    <t>Stranger Things</t>
+  </si>
+  <si>
+    <t>أشياء غريبة</t>
+  </si>
+  <si>
+    <t>Street Fighter</t>
+  </si>
+  <si>
+    <t>ستريت فايتر</t>
+  </si>
+  <si>
+    <t>Strider</t>
+  </si>
+  <si>
+    <t>سترايدر</t>
+  </si>
+  <si>
+    <t>Subnautica</t>
+  </si>
+  <si>
+    <t>سوبناوتيكا</t>
+  </si>
+  <si>
+    <t>Summer</t>
+  </si>
+  <si>
+    <t>سمر</t>
+  </si>
+  <si>
+    <t>Sunglasses</t>
+  </si>
+  <si>
+    <t>نظارات شمسية</t>
+  </si>
+  <si>
+    <t>Super Mario</t>
+  </si>
+  <si>
+    <t>سوبر ماريو</t>
+  </si>
+  <si>
+    <t>Supernatural</t>
+  </si>
+  <si>
+    <t>خارق للطبيعة</t>
+  </si>
+  <si>
+    <t>Surprised Creature</t>
+  </si>
+  <si>
+    <t>مخلوق متفاجئ</t>
+  </si>
+  <si>
+    <t>Surprised Person</t>
+  </si>
+  <si>
+    <t>شخص متفاجئ</t>
+  </si>
+  <si>
+    <t>Sushi</t>
+  </si>
+  <si>
+    <t>سوشي</t>
+  </si>
+  <si>
+    <t>Swamp</t>
+  </si>
+  <si>
+    <t>مستنقع</t>
+  </si>
+  <si>
+    <t>Sword Art Online</t>
+  </si>
+  <si>
+    <t>سيف الفن على الإنترنت</t>
+  </si>
+  <si>
+    <t>TaleSpin</t>
+  </si>
+  <si>
+    <t>تاليسبين</t>
+  </si>
+  <si>
+    <t>Tangled</t>
+  </si>
+  <si>
+    <t>متشابك</t>
+  </si>
+  <si>
+    <t>Tattletail</t>
+  </si>
+  <si>
+    <t>الثرثرة</t>
+  </si>
+  <si>
+    <t>Team Fortress 2</t>
+  </si>
+  <si>
+    <t>فريق القلعة 2</t>
+  </si>
+  <si>
+    <t>Teletubbies</t>
+  </si>
+  <si>
+    <t>تيليتوبيس</t>
+  </si>
+  <si>
+    <t>Terraria</t>
+  </si>
+  <si>
+    <t>تيراريا</t>
+  </si>
+  <si>
+    <t>Terraria (Calamity)</t>
+  </si>
+  <si>
+    <t>تيراريا (مصيبة)</t>
+  </si>
+  <si>
+    <t>Tetris</t>
+  </si>
+  <si>
+    <t>تيتريس</t>
+  </si>
+  <si>
+    <t>Thanksgiving</t>
+  </si>
+  <si>
+    <t>عيد الشكر</t>
+  </si>
+  <si>
+    <t>That Time I Got Reincarnated as a Slime</t>
+  </si>
+  <si>
+    <t>تلك المرة التي تجسدت فيها في هيئة سلايم</t>
+  </si>
+  <si>
+    <t>Thaumcraft</t>
+  </si>
+  <si>
+    <t>ثومكرافت</t>
+  </si>
+  <si>
+    <t>The Adventures of Tintin</t>
+  </si>
+  <si>
+    <t>مغامرات تان تان تان تان</t>
+  </si>
+  <si>
+    <t>The Amazing Digital Circus</t>
+  </si>
+  <si>
+    <t>السيرك الرقمي المذهل</t>
+  </si>
+  <si>
+    <t>The Amazing World of Gumball</t>
+  </si>
+  <si>
+    <t>عالم غامبول المذهل</t>
+  </si>
+  <si>
+    <t>The Binding of Isaac</t>
+  </si>
+  <si>
+    <t>ملزمة إسحاق</t>
+  </si>
+  <si>
+    <t>The Boys</t>
+  </si>
+  <si>
+    <t>الأولاد</t>
+  </si>
+  <si>
+    <t>The Cat Returns</t>
+  </si>
+  <si>
+    <t>عودة القطة</t>
+  </si>
+  <si>
+    <t>The Conjuring</t>
+  </si>
+  <si>
+    <t>The Copper Age</t>
+  </si>
+  <si>
+    <t>العصر النحاسي</t>
+  </si>
+  <si>
+    <t>The Emperor's New Groove</t>
+  </si>
+  <si>
+    <t>أخدود الإمبراطور الجديد</t>
+  </si>
+  <si>
+    <t>The English Ensemble Stars</t>
+  </si>
+  <si>
+    <t>نجوم الفرقة الإنجليزية</t>
+  </si>
+  <si>
+    <t>The Fairly OddParents</t>
+  </si>
+  <si>
+    <t>The Finals</t>
+  </si>
+  <si>
+    <t>النهائيات</t>
+  </si>
+  <si>
+    <t>The Flash</t>
+  </si>
+  <si>
+    <t>ذا فلاش</t>
+  </si>
+  <si>
+    <t>The Flintstones</t>
+  </si>
+  <si>
+    <t>ذا فلينستونز</t>
+  </si>
+  <si>
+    <t>The Fly</t>
+  </si>
+  <si>
+    <t>الذبابة</t>
+  </si>
+  <si>
+    <t>The Garden Awakens</t>
+  </si>
+  <si>
+    <t>The Good Dinosaur</t>
+  </si>
+  <si>
+    <t>الديناصور الجيد</t>
+  </si>
+  <si>
+    <t>The Great Mouse Detective</t>
+  </si>
+  <si>
+    <t>المحقق الفأر العظيم</t>
+  </si>
+  <si>
+    <t>The Grim Adventures of Billy &amp; Mandy</t>
+  </si>
+  <si>
+    <t>المغامرات القاتمة لبيلي وماندي</t>
+  </si>
+  <si>
+    <t>The Hunchback of Notre Dame</t>
+  </si>
+  <si>
+    <t>أحدب نوتردام</t>
+  </si>
+  <si>
+    <t>The Iron Giant</t>
+  </si>
+  <si>
+    <t>العملاق الحديدي</t>
+  </si>
+  <si>
+    <t>The Last Guardian</t>
+  </si>
+  <si>
+    <t>الحارس الأخير</t>
+  </si>
+  <si>
+    <t>The Last of Us</t>
+  </si>
+  <si>
+    <t>آخرنا</t>
+  </si>
+  <si>
+    <t>The Legend of Zelda</t>
+  </si>
+  <si>
+    <t>أسطورة زيلدا</t>
+  </si>
+  <si>
+    <t>The Lorax</t>
+  </si>
+  <si>
+    <t>ذا لوراكس</t>
+  </si>
+  <si>
+    <t>The Neverhood</t>
+  </si>
+  <si>
+    <t>نيفرهود</t>
+  </si>
+  <si>
+    <t>The Owl House</t>
+  </si>
+  <si>
+    <t>بيت البومة</t>
+  </si>
+  <si>
+    <t>The Princess and the Frog</t>
+  </si>
+  <si>
+    <t>الأميرة والضفدع</t>
+  </si>
+  <si>
+    <t>The Ren &amp; Stimpy Show</t>
+  </si>
+  <si>
+    <t>عرض رين وستيمبي</t>
+  </si>
+  <si>
+    <t>The Road to El Dorado</t>
+  </si>
+  <si>
+    <t>الطريق إلى الدورادو</t>
+  </si>
+  <si>
+    <t>The Texas Chainsaw Massacre</t>
+  </si>
+  <si>
+    <t>مذبحة منشار تكساس</t>
+  </si>
+  <si>
+    <t>The Three Caballeros</t>
+  </si>
+  <si>
+    <t>The Walten Files</t>
+  </si>
+  <si>
+    <t>ملفات والتين</t>
+  </si>
+  <si>
+    <t>The Woody Woodpecker Show</t>
+  </si>
+  <si>
+    <t>عرض وودي ونقار الخشب</t>
+  </si>
+  <si>
+    <t>Thomas &amp; Friends</t>
+  </si>
+  <si>
+    <t>توماس والأصدقاء</t>
+  </si>
+  <si>
+    <t>Thor</t>
+  </si>
+  <si>
+    <t>ثور</t>
+  </si>
+  <si>
+    <t>Those Nights at Rachel's</t>
+  </si>
+  <si>
+    <t>تلك الليالي عند راشيلز</t>
+  </si>
+  <si>
+    <t>Tinker's Construct</t>
+  </si>
+  <si>
+    <t>تينكرز كونستركت</t>
+  </si>
+  <si>
+    <t>Titanfall</t>
+  </si>
+  <si>
+    <t>تيتان فول</t>
+  </si>
+  <si>
+    <t>Tokyo Ghoul</t>
+  </si>
+  <si>
+    <t>غول طوكيو</t>
+  </si>
+  <si>
+    <t>Tom and Jerry</t>
+  </si>
+  <si>
+    <t>توم وجيري</t>
+  </si>
+  <si>
+    <t>Tomb Raider</t>
+  </si>
+  <si>
+    <t>تومب رايدر</t>
+  </si>
+  <si>
+    <t>Tomorrow's Pioneers</t>
+  </si>
+  <si>
+    <t>رواد الغد</t>
+  </si>
+  <si>
+    <t>Tooth Gap</t>
+  </si>
+  <si>
+    <t>توث جاب</t>
+  </si>
+  <si>
+    <t>Toradora</t>
+  </si>
+  <si>
+    <t>تورادورا</t>
+  </si>
+  <si>
+    <t>Total Drama Island</t>
+  </si>
+  <si>
+    <t>جزيرة الدراما الكاملة</t>
+  </si>
+  <si>
+    <t>Touhou Project</t>
+  </si>
+  <si>
+    <t>مشروع توهو</t>
+  </si>
+  <si>
+    <t>Toy</t>
+  </si>
+  <si>
+    <t>توي</t>
+  </si>
+  <si>
+    <t>Toy Story</t>
+  </si>
+  <si>
+    <t>قصة لعبة</t>
+  </si>
+  <si>
+    <t>Traffic</t>
+  </si>
+  <si>
+    <t>المرور</t>
+  </si>
+  <si>
+    <t>Traffic Light</t>
+  </si>
+  <si>
+    <t>إشارة المرور</t>
+  </si>
+  <si>
+    <t>Traffic Sign</t>
+  </si>
+  <si>
+    <t>Trails and Tales</t>
+  </si>
+  <si>
+    <t>مسارات وحكايات</t>
+  </si>
+  <si>
+    <t>Transformers</t>
+  </si>
+  <si>
+    <t>المتحولون</t>
+  </si>
+  <si>
+    <t>Transformice</t>
+  </si>
+  <si>
+    <t>ترانسفورميس</t>
+  </si>
+  <si>
+    <t>Transparent Head</t>
+  </si>
+  <si>
+    <t>الرأس الشفاف</t>
+  </si>
+  <si>
+    <t>Trash Can</t>
+  </si>
+  <si>
+    <t>سلة المهملات</t>
+  </si>
+  <si>
+    <t>Treasure</t>
+  </si>
+  <si>
+    <t>كنز</t>
+  </si>
+  <si>
+    <t>Treasure Planet</t>
+  </si>
+  <si>
+    <t>كوكب الكنز</t>
+  </si>
+  <si>
+    <t>Tricky Trials Update</t>
+  </si>
+  <si>
+    <t>تحديث التجارب الصعبة</t>
+  </si>
+  <si>
+    <t>Tron</t>
+  </si>
+  <si>
+    <t>ترون</t>
+  </si>
+  <si>
+    <t>Turtle</t>
+  </si>
+  <si>
+    <t>السلحفاة</t>
+  </si>
+  <si>
+    <t>Twilight Forest</t>
+  </si>
+  <si>
+    <t>غابة الشفق</t>
+  </si>
+  <si>
+    <t>Twisted Wonderland</t>
+  </si>
+  <si>
+    <t>أرض العجائب الملتوية</t>
+  </si>
+  <si>
+    <t>Ultrakill</t>
+  </si>
+  <si>
+    <t>ألترا كيل</t>
+  </si>
+  <si>
+    <t>Umineko - When They Cry</t>
+  </si>
+  <si>
+    <t>أومينيكو - عندما يبكون</t>
+  </si>
+  <si>
+    <t>Undertale</t>
+  </si>
+  <si>
+    <t>أندرتيل</t>
+  </si>
+  <si>
+    <t>Undertale AU</t>
+  </si>
+  <si>
+    <t>أندرتيل AU</t>
+  </si>
+  <si>
+    <t>Undertale Yellow</t>
+  </si>
+  <si>
+    <t>Universal Symbol</t>
+  </si>
+  <si>
+    <t>الرمز العالمي</t>
+  </si>
+  <si>
+    <t>Up</t>
+  </si>
+  <si>
+    <t>فوق</t>
+  </si>
+  <si>
+    <t>Urban Wildlife</t>
+  </si>
+  <si>
+    <t>الحياة البرية الحضرية</t>
+  </si>
+  <si>
+    <t>V for Vendetta</t>
+  </si>
+  <si>
+    <t>Valentines</t>
+  </si>
+  <si>
+    <t>فالنتاينز</t>
+  </si>
+  <si>
+    <t>Valorant</t>
+  </si>
+  <si>
+    <t>فالورانت</t>
+  </si>
+  <si>
+    <t>Vanilla (removed)</t>
+  </si>
+  <si>
+    <t>فانيلا (تمت إزالته)</t>
+  </si>
+  <si>
+    <t>Vanilla Block</t>
+  </si>
+  <si>
+    <t>كتلة الفانيليا</t>
+  </si>
+  <si>
+    <t>Vanilla Food</t>
+  </si>
+  <si>
+    <t>طعام الفانيليا</t>
+  </si>
+  <si>
+    <t>Vanilla Helmet</t>
+  </si>
+  <si>
+    <t>خوذة الفانيليا</t>
+  </si>
+  <si>
+    <t>Vanilla Item</t>
+  </si>
+  <si>
+    <t>عنصر فانيلا</t>
+  </si>
+  <si>
+    <t>Vanilla Mob</t>
+  </si>
+  <si>
+    <t>غوغاء الفانيليا</t>
+  </si>
+  <si>
+    <t>Vault Hunters</t>
+  </si>
+  <si>
+    <t>صيادو القبو</t>
+  </si>
+  <si>
+    <t>Vegetable</t>
+  </si>
+  <si>
+    <t>خضروات</t>
+  </si>
+  <si>
+    <t>Vehicle</t>
+  </si>
+  <si>
+    <t>مركبة</t>
+  </si>
+  <si>
+    <t>Vikings</t>
+  </si>
+  <si>
+    <t>الفايكنج</t>
+  </si>
+  <si>
+    <t>Villager</t>
+  </si>
+  <si>
+    <t>قروي</t>
+  </si>
+  <si>
+    <t>Villager (Desert)</t>
+  </si>
+  <si>
+    <t>قروي (صحراوي)</t>
+  </si>
+  <si>
+    <t>Villager (Jungle)</t>
+  </si>
+  <si>
+    <t>قروي (الغابة)</t>
+  </si>
+  <si>
+    <t>Villager (Plains)</t>
+  </si>
+  <si>
+    <t>قروي (السهول)</t>
+  </si>
+  <si>
+    <t>Villager (Savanna)</t>
+  </si>
+  <si>
+    <t>قروي (سافانا)</t>
+  </si>
+  <si>
+    <t>Villager (Snowy Tundra)</t>
+  </si>
+  <si>
+    <t>قروي (التندرا الثلجية)</t>
+  </si>
+  <si>
+    <t>Villager (Swamp)</t>
+  </si>
+  <si>
+    <t>قروي (مستنقع)</t>
+  </si>
+  <si>
+    <t>Villager (Taiga)</t>
+  </si>
+  <si>
+    <t>قروي (تايغا)</t>
+  </si>
+  <si>
+    <t>Virtual Youtuber</t>
+  </si>
+  <si>
+    <t>قروي افتراضي</t>
+  </si>
+  <si>
+    <t>Vocaloid</t>
+  </si>
+  <si>
+    <t>فوكالويد</t>
+  </si>
+  <si>
+    <t>Voltron</t>
+  </si>
+  <si>
+    <t>فولترون</t>
+  </si>
+  <si>
+    <t>Wakfu</t>
+  </si>
+  <si>
+    <t>واكفو</t>
+  </si>
+  <si>
+    <t>Walking Dead</t>
+  </si>
+  <si>
+    <t>الموتى السائرون</t>
+  </si>
+  <si>
+    <t>Wall-E</t>
+  </si>
+  <si>
+    <t>وال-إي</t>
+  </si>
+  <si>
+    <t>Wallace and Gromit</t>
+  </si>
+  <si>
+    <t>والاس وجروميت</t>
+  </si>
+  <si>
+    <t>War of the Worlds</t>
+  </si>
+  <si>
+    <t>حرب العوالم</t>
+  </si>
+  <si>
+    <t>Warcraft</t>
+  </si>
+  <si>
+    <t>واركرافت</t>
+  </si>
+  <si>
+    <t>Warframe</t>
+  </si>
+  <si>
+    <t>وارفريم</t>
+  </si>
+  <si>
+    <t>Warhammer</t>
+  </si>
+  <si>
+    <t>Warrior Cats</t>
+  </si>
+  <si>
+    <t>القطط المحاربة</t>
+  </si>
+  <si>
+    <t>We Bear Bears</t>
+  </si>
+  <si>
+    <t>نحن دببة الدببة</t>
+  </si>
+  <si>
+    <t>We Happy Few</t>
+  </si>
+  <si>
+    <t>نحن القلة السعداء</t>
+  </si>
+  <si>
+    <t>Weather</t>
+  </si>
+  <si>
+    <t>الطقس</t>
+  </si>
+  <si>
+    <t>Welcome Home</t>
+  </si>
+  <si>
+    <t>مرحبًا بك في بيتك</t>
+  </si>
+  <si>
+    <t>Who is this?</t>
+  </si>
+  <si>
+    <t>من هذا؟</t>
+  </si>
+  <si>
+    <t>Wild Update</t>
+  </si>
+  <si>
+    <t>تحديث البرية</t>
+  </si>
+  <si>
+    <t>Wings of Fire</t>
+  </si>
+  <si>
+    <t>أجنحة النار</t>
+  </si>
+  <si>
+    <t>Winnie the Pooh</t>
+  </si>
+  <si>
+    <t>ويني ذا بوو</t>
+  </si>
+  <si>
+    <t>Winter</t>
+  </si>
+  <si>
+    <t>وينتر</t>
+  </si>
+  <si>
+    <t>Witcher</t>
+  </si>
+  <si>
+    <t>ويتشر</t>
+  </si>
+  <si>
+    <t>Wonderful Wonder World</t>
+  </si>
+  <si>
+    <t>عالم العجائب الرائع</t>
+  </si>
+  <si>
+    <t>Wood</t>
+  </si>
+  <si>
+    <t>خشب</t>
+  </si>
+  <si>
+    <t>Wool</t>
+  </si>
+  <si>
+    <t>صوف</t>
+  </si>
+  <si>
+    <t>Work Safety Helmet</t>
+  </si>
+  <si>
+    <t>خوذة سلامة العمل</t>
+  </si>
+  <si>
+    <t>Wreck It Ralph</t>
+  </si>
+  <si>
+    <t>وريك إت رالف</t>
+  </si>
+  <si>
+    <t>Wybel</t>
+  </si>
+  <si>
+    <t>ويبل</t>
+  </si>
+  <si>
+    <t>Wynncraft</t>
+  </si>
+  <si>
+    <t>وينكرافت</t>
+  </si>
+  <si>
+    <t>X-Men</t>
+  </si>
+  <si>
+    <t>إكس-مين</t>
+  </si>
+  <si>
+    <t>Xenoblade Chronicles</t>
+  </si>
+  <si>
+    <t>زينوبليد كرونيكلز</t>
+  </si>
+  <si>
+    <t>Yandere Simulator</t>
+  </si>
+  <si>
+    <t>محاكي ياندير</t>
+  </si>
+  <si>
+    <t>Yellow Submarine</t>
+  </si>
+  <si>
+    <t>الغواصة الصفراء</t>
+  </si>
+  <si>
+    <t>Yokai</t>
+  </si>
+  <si>
+    <t>يوكاي</t>
+  </si>
+  <si>
+    <t>Yooka Laylee</t>
+  </si>
+  <si>
+    <t>يوكا ليلي</t>
+  </si>
+  <si>
+    <t>Young</t>
+  </si>
+  <si>
+    <t>يونغ</t>
+  </si>
+  <si>
+    <t>Youtube</t>
+  </si>
+  <si>
+    <t>يوتيوب</t>
+  </si>
+  <si>
+    <t>Yu-Gi-Oh</t>
+  </si>
+  <si>
+    <t>يو-جي-أوه</t>
+  </si>
+  <si>
+    <t>Yume Nikki</t>
+  </si>
+  <si>
+    <t>يومي نيكي</t>
+  </si>
+  <si>
+    <t>Zero no Tsukaima</t>
+  </si>
+  <si>
+    <t>زيرو نو تسوكايما</t>
+  </si>
+  <si>
+    <t>Zero Wing</t>
+  </si>
+  <si>
+    <t>زيرو وينج</t>
+  </si>
+  <si>
+    <t>Zodiac Sign</t>
+  </si>
+  <si>
+    <t>علامة زودياك</t>
+  </si>
+  <si>
+    <t>Zombie</t>
+  </si>
+  <si>
+    <t>زومبي</t>
+  </si>
+  <si>
+    <t>Zombie (Vanilla)</t>
+  </si>
+  <si>
+    <t>زومبي (فانيليا)</t>
+  </si>
+  <si>
+    <t>Zootopia</t>
+  </si>
+  <si>
+    <t>زوتوبيا</t>
+  </si>
+  <si>
     <t>Hypixel (Mutations) Tag</t>
   </si>
   <si>
     <t>علامة Hypixel (الطفرات)</t>
-  </si>
-  <si>
-    <t>Hypixel (NPC)</t>
-  </si>
-  <si>
-    <t>هايبيكسل (الشخصيات غير القابلة للعب)</t>
-  </si>
-  <si>
-    <t>Hypixel (Pets)</t>
-  </si>
-  <si>
-    <t>هايبكسل (حيوانات أليفة)</t>
-  </si>
-  <si>
-    <t>Hypixel (Reforge Stone)</t>
-  </si>
-  <si>
-    <t>هايبكسل (حجر إعادة التشكيل)</t>
-  </si>
-  <si>
-    <t>Hypixel (Sacks)</t>
-  </si>
-  <si>
-    <t>هايبيكسل (الأكياس)</t>
-  </si>
-  <si>
-    <t>Hypixel (Skins)</t>
-  </si>
-  <si>
-    <t>هايبيكسل (الجلود)</t>
-  </si>
-  <si>
-    <t>Hypixel (Talismans)</t>
-  </si>
-  <si>
-    <t>هايبكسل (التعويذات)</t>
-  </si>
-  <si>
-    <t>Hypixel (Trophy Fish)</t>
-  </si>
-  <si>
-    <t>هايبيكسل (أسماك الكؤوس)</t>
-  </si>
-  <si>
-    <t>Hōseki no Kuni (Land of the Lustrous)</t>
-  </si>
-  <si>
-    <t>هوسيكي نو كوني (أرض اللمعان)</t>
-  </si>
-  <si>
-    <t>Ib</t>
-  </si>
-  <si>
-    <t>إيب</t>
-  </si>
-  <si>
-    <t>Ice Age</t>
-  </si>
-  <si>
-    <t>العصر الجليدي</t>
-  </si>
-  <si>
-    <t>Ice Climber</t>
-  </si>
-  <si>
-    <t>متسلق الجليد</t>
-  </si>
-  <si>
-    <t>Ice Cream</t>
-  </si>
-  <si>
-    <t>آيس كريم</t>
-  </si>
-  <si>
-    <t>Icons (GUI)</t>
-  </si>
-  <si>
-    <t>أيقونات (واجهة المستخدم الرسومية)</t>
-  </si>
-  <si>
-    <t>Icons (Ironblock)</t>
-  </si>
-  <si>
-    <t>أيقونات (آيرون بلوك)</t>
-  </si>
-  <si>
-    <t>Icons (Other)</t>
-  </si>
-  <si>
-    <t>أيقونات (أخرى)</t>
-  </si>
-  <si>
-    <t>Icons (white background)</t>
-  </si>
-  <si>
-    <t>أيقونات (خلفية بيضاء)</t>
-  </si>
-  <si>
-    <t>Identity V</t>
-  </si>
-  <si>
-    <t>الهوية V</t>
-  </si>
-  <si>
-    <t>Illager</t>
-  </si>
-  <si>
-    <t>أيقونات</t>
-  </si>
-  <si>
-    <t>Inazuma Eleven</t>
-  </si>
-  <si>
-    <t>إينازوما أحد عشر</t>
-  </si>
-  <si>
-    <t>Incredibles</t>
-  </si>
-  <si>
-    <t>إنكريديبلز</t>
-  </si>
-  <si>
-    <t>Indiana Jones</t>
-  </si>
-  <si>
-    <t>إنديانا جونز</t>
-  </si>
-  <si>
-    <t>Indigo Park</t>
-  </si>
-  <si>
-    <t>إنديغو بارك</t>
-  </si>
-  <si>
-    <t>Injuries</t>
-  </si>
-  <si>
-    <t>الإصابات</t>
-  </si>
-  <si>
-    <t>Inner Layer Block</t>
-  </si>
-  <si>
-    <t>كتلة الطبقة الداخلية</t>
-  </si>
-  <si>
-    <t>Inscryption</t>
-  </si>
-  <si>
-    <t>التشفير</t>
-  </si>
-  <si>
-    <t>Insect</t>
-  </si>
-  <si>
-    <t>حشرة</t>
-  </si>
-  <si>
-    <t>Inside Out</t>
-  </si>
-  <si>
-    <t>إنسايد أوت</t>
-  </si>
-  <si>
-    <t>Inu Yasha</t>
-  </si>
-  <si>
-    <t>إينو ياشا</t>
-  </si>
-  <si>
-    <t>Invader Zim</t>
-  </si>
-  <si>
-    <t>إنفيادر زيم</t>
-  </si>
-  <si>
-    <t>Invincible</t>
-  </si>
-  <si>
-    <t>إنفينسيبل</t>
-  </si>
-  <si>
-    <t>Iron Man</t>
-  </si>
-  <si>
-    <t>الرجل الحديدي</t>
-  </si>
-  <si>
-    <t>It</t>
-  </si>
-  <si>
-    <t>إيت</t>
-  </si>
-  <si>
-    <t>Jak and Daxter</t>
-  </si>
-  <si>
-    <t>جاك وداكستر</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>اليابان</t>
-  </si>
-  <si>
-    <t>Jar</t>
-  </si>
-  <si>
-    <t>جرة</t>
-  </si>
-  <si>
-    <t>Jewelry</t>
-  </si>
-  <si>
-    <t>مجوهرات</t>
-  </si>
-  <si>
-    <t>JoJo's Bizarre Adventure</t>
-  </si>
-  <si>
-    <t>مغامرة جوجو الغريبة (حامل)</t>
-  </si>
-  <si>
-    <t>JoJo's Bizarre Adventure (Stand)</t>
-  </si>
-  <si>
-    <t>Journey</t>
-  </si>
-  <si>
-    <t>رحلة</t>
-  </si>
-  <si>
-    <t>Jujutsu Kaisen</t>
-  </si>
-  <si>
-    <t>جوجوتسو كايسن</t>
-  </si>
-  <si>
-    <t>Jump King</t>
-  </si>
-  <si>
-    <t>ملك القفز</t>
-  </si>
-  <si>
-    <t>Jurassic Park</t>
-  </si>
-  <si>
-    <t>جوراسيك بارك</t>
-  </si>
-  <si>
-    <t>Justice League</t>
-  </si>
-  <si>
-    <t>رابطة العدالة</t>
-  </si>
-  <si>
-    <t>Kaiju Paradise</t>
-  </si>
-  <si>
-    <t>جنة كايجو</t>
-  </si>
-  <si>
-    <t>Kakegurui</t>
-  </si>
-  <si>
-    <t>كاكيجوروي</t>
-  </si>
-  <si>
-    <t>Karate Kid</t>
-  </si>
-  <si>
-    <t>كاراتيه كيد</t>
-  </si>
-  <si>
-    <t>Katamari Damacy</t>
-  </si>
-  <si>
-    <t>كاتاماري دامسي</t>
-  </si>
-  <si>
-    <t>Kid Icarus</t>
-  </si>
-  <si>
-    <t>كيد إيكاروس</t>
-  </si>
-  <si>
-    <t>Kiki's Delivery Service</t>
-  </si>
-  <si>
-    <t>خدمة توصيل كيكي</t>
-  </si>
-  <si>
-    <t>Kill la Kill</t>
-  </si>
-  <si>
-    <t>كيل لا كيل</t>
-  </si>
-  <si>
-    <t>Killzone</t>
-  </si>
-  <si>
-    <t>كيلزون</t>
-  </si>
-  <si>
-    <t>Kim Possible</t>
-  </si>
-  <si>
-    <t>كيم بوسيبل</t>
-  </si>
-  <si>
-    <t>Kimetsu no Yaiba</t>
-  </si>
-  <si>
-    <t>كيميتسو نو يايبا</t>
-  </si>
-  <si>
-    <t>Kingdom Hearts</t>
-  </si>
-  <si>
-    <t>مملكة القلوب</t>
-  </si>
-  <si>
-    <t>Kirby</t>
-  </si>
-  <si>
-    <t>كيربي</t>
-  </si>
-  <si>
-    <t>Kitchen</t>
-  </si>
-  <si>
-    <t>كيتشن</t>
-  </si>
-  <si>
-    <t>KonoSuba</t>
-  </si>
-  <si>
-    <t>كونوسوبا</t>
-  </si>
-  <si>
-    <t>Koopalings</t>
-  </si>
-  <si>
-    <t>كوبالينغز</t>
-  </si>
-  <si>
-    <t>Kung Fu Panda</t>
-  </si>
-  <si>
-    <t>كونغ فو باندا</t>
-  </si>
-  <si>
-    <t>Kuroko no Basuke</t>
-  </si>
-  <si>
-    <t>كوروكو نو باسوكي</t>
-  </si>
-  <si>
-    <t>Lamp Shade</t>
-  </si>
-  <si>
-    <t>غطاء المصباح</t>
-  </si>
-  <si>
-    <t>Landscape</t>
-  </si>
-  <si>
-    <t>منظر طبيعي</t>
-  </si>
-  <si>
-    <t>Lantern</t>
-  </si>
-  <si>
-    <t>فانوس</t>
-  </si>
-  <si>
-    <t>Laputa: Castle in the Sky</t>
-  </si>
-  <si>
-    <t>لابوتا: قلعة في السماء</t>
-  </si>
-  <si>
-    <t>LazyTown</t>
-  </si>
-  <si>
-    <t>المدينة الكسولة</t>
-  </si>
-  <si>
-    <t>League of Legends</t>
-  </si>
-  <si>
-    <t>عصبة الأساطير</t>
-  </si>
-  <si>
-    <t>Left 4 Dead</t>
-  </si>
-  <si>
-    <t>ليفت 4 ديد</t>
-  </si>
-  <si>
-    <t>Legendary Pokemon</t>
-  </si>
-  <si>
-    <t>بوكيمون أسطوري</t>
-  </si>
-  <si>
-    <t>Lego</t>
-  </si>
-  <si>
-    <t>ليغو</t>
-  </si>
-  <si>
-    <t>Lethal League</t>
-  </si>
-  <si>
-    <t>الدوري القاتل</t>
-  </si>
-  <si>
-    <t>Library of Ruina</t>
-  </si>
-  <si>
-    <t>مكتبة روينا</t>
-  </si>
-  <si>
-    <t>Life is Strange</t>
-  </si>
-  <si>
-    <t>الحياة غريبة</t>
-  </si>
-  <si>
-    <t>Lilo &amp; Stitch</t>
-  </si>
-  <si>
-    <t>ليلو وستيتش</t>
-  </si>
-  <si>
-    <t>Limbus Company</t>
-  </si>
-  <si>
-    <t>شركة ليمبوس</t>
-  </si>
-  <si>
-    <t>Lion King</t>
-  </si>
-  <si>
-    <t>الأسد الملك</t>
-  </si>
-  <si>
-    <t>Little Big Planet</t>
-  </si>
-  <si>
-    <t>ليتل بيغ بلانيت</t>
-  </si>
-  <si>
-    <t>Little Mermaid</t>
-  </si>
-  <si>
-    <t>ليتل ميرميد</t>
-  </si>
-  <si>
-    <t>Little Nightmares</t>
-  </si>
-  <si>
-    <t>كوابيس صغيرة</t>
-  </si>
-  <si>
-    <t>Little Shop of Horrors</t>
-  </si>
-  <si>
-    <t>متجر الرعب الصغير</t>
-  </si>
-  <si>
-    <t>Little Witch Academia</t>
-  </si>
-  <si>
-    <t>أكاديمية الساحرة الصغيرة</t>
-  </si>
-  <si>
-    <t>Llama</t>
-  </si>
-  <si>
-    <t>لاما</t>
-  </si>
-  <si>
-    <t>Logo</t>
-  </si>
-  <si>
-    <t>لوجو</t>
-  </si>
-  <si>
-    <t>Looney Tunes</t>
-  </si>
-  <si>
-    <t>لوني تونز</t>
-  </si>
-  <si>
-    <t>Lord of the Rings</t>
-  </si>
-  <si>
-    <t>سيد الخواتم</t>
-  </si>
-  <si>
-    <t>Love Live!</t>
-  </si>
-  <si>
-    <t>لوف لايف!</t>
-  </si>
-  <si>
-    <t>Lovestruck Creature</t>
-  </si>
-  <si>
-    <t>مخلوق عاشق</t>
-  </si>
-  <si>
-    <t>Lovestruck Person</t>
-  </si>
-  <si>
-    <t>الشخص المحبوب</t>
-  </si>
-  <si>
-    <t>Lucky Luke</t>
-  </si>
-  <si>
-    <t>لاكي لوك</t>
-  </si>
-  <si>
-    <t>Machine Part</t>
-  </si>
-  <si>
-    <t>جزء الآلة</t>
-  </si>
-  <si>
-    <t>Mad Father</t>
-  </si>
-  <si>
-    <t>الأب المجنون</t>
-  </si>
-  <si>
-    <t>Mad Max</t>
-  </si>
-  <si>
-    <t>ماكس المجنون</t>
-  </si>
-  <si>
-    <t>Made in Abyss</t>
-  </si>
-  <si>
-    <t>صنع في الهاوية</t>
-  </si>
-  <si>
-    <t>Madness Combat</t>
-  </si>
-  <si>
-    <t>جنون القتال</t>
-  </si>
-  <si>
-    <t>Madoka Magica</t>
-  </si>
-  <si>
-    <t>مادوكا ماجيكا</t>
-  </si>
-  <si>
-    <t>Makeup</t>
-  </si>
-  <si>
-    <t>مكياج</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>ذكر</t>
-  </si>
-  <si>
-    <t>Mao Mao Heroes of Pure Heart</t>
-  </si>
-  <si>
-    <t>ماو ماو أبطال القلب النقي</t>
-  </si>
-  <si>
-    <t>MapleStory</t>
-  </si>
-  <si>
-    <t>قصة القيقب</t>
-  </si>
-  <si>
-    <t>Marvel</t>
-  </si>
-  <si>
-    <t>أعجوبة</t>
-  </si>
-  <si>
-    <t>Mary and the Witch's Flower</t>
-  </si>
-  <si>
-    <t>ماري وزهرة الساحرة</t>
-  </si>
-  <si>
-    <t>Mascot</t>
-  </si>
-  <si>
-    <t>التميمة</t>
-  </si>
-  <si>
-    <t>Mask</t>
-  </si>
-  <si>
-    <t>القناع</t>
-  </si>
-  <si>
-    <t>Mask (full)</t>
-  </si>
-  <si>
-    <t>قناع (كامل)</t>
-  </si>
-  <si>
-    <t>Mask (functional)</t>
-  </si>
-  <si>
-    <t>قناع (وظيفي)</t>
-  </si>
-  <si>
-    <t>Mask (health)</t>
-  </si>
-  <si>
-    <t>قناع (صحي)</t>
-  </si>
-  <si>
-    <t>Mask (Minecraft mob)</t>
-  </si>
-  <si>
-    <t>قناع (غوغاء ماين كرافت)</t>
-  </si>
-  <si>
-    <t>Mass Effect</t>
-  </si>
-  <si>
-    <t>تأثير الكتلة</t>
-  </si>
-  <si>
-    <t>Masters of the Universe</t>
-  </si>
-  <si>
-    <t>سادة الكون</t>
-  </si>
-  <si>
-    <t>Mathematical Symbol</t>
-  </si>
-  <si>
-    <t>الرمز الرياضي</t>
-  </si>
-  <si>
-    <t>Mc Donalds</t>
-  </si>
-  <si>
-    <t>ماك دونالدز</t>
-  </si>
-  <si>
-    <t>Meal</t>
-  </si>
-  <si>
-    <t>وجبة</t>
-  </si>
-  <si>
-    <t>Meat</t>
-  </si>
-  <si>
-    <t>لحم</t>
-  </si>
-  <si>
-    <t>Medieval</t>
-  </si>
-  <si>
-    <t>القرون الوسطى</t>
-  </si>
-  <si>
-    <t>Medieval Tavern</t>
-  </si>
-  <si>
-    <t>حانة القرون الوسطى</t>
-  </si>
-  <si>
-    <t>Medieval Warfare Helmet</t>
-  </si>
-  <si>
-    <t>خوذة حرب القرون الوسطى</t>
-  </si>
-  <si>
-    <t>MediEvil</t>
-  </si>
-  <si>
-    <t>ميدي إيفل</t>
-  </si>
-  <si>
-    <t>Mega Evolution</t>
-  </si>
-  <si>
-    <t>ميجا التطور</t>
-  </si>
-  <si>
-    <t>Megaman</t>
-  </si>
-  <si>
-    <t>ميجامان</t>
-  </si>
-  <si>
-    <t>Megami Tensei</t>
-  </si>
-  <si>
-    <t>ميغامي تينسي</t>
-  </si>
-  <si>
-    <t>Mekakucity Actors</t>
-  </si>
-  <si>
-    <t>ممثلو ميجاكوسيتي</t>
-  </si>
-  <si>
-    <t>Meme</t>
-  </si>
-  <si>
-    <t>ميمي</t>
-  </si>
-  <si>
-    <t>Meme (Doge)</t>
-  </si>
-  <si>
-    <t>ميمي (دوجي)</t>
-  </si>
-  <si>
-    <t>Meme (Pepe)</t>
-  </si>
-  <si>
-    <t>ميمي (بيبي)</t>
-  </si>
-  <si>
-    <t>Metal</t>
-  </si>
-  <si>
-    <t>ميتال</t>
-  </si>
-  <si>
-    <t>Metal Gear</t>
-  </si>
-  <si>
-    <t>ميتال جير</t>
-  </si>
-  <si>
-    <t>Metro</t>
-  </si>
-  <si>
-    <t>مترو</t>
-  </si>
-  <si>
-    <t>Metroid</t>
-  </si>
-  <si>
-    <t>ميترويد</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>المكسيك</t>
-  </si>
-  <si>
-    <t>Mickey Mouse</t>
-  </si>
-  <si>
-    <t>ميكي ماوس</t>
-  </si>
-  <si>
-    <t>Military Equipment</t>
-  </si>
-  <si>
-    <t>معدات عسكرية</t>
-  </si>
-  <si>
-    <t>Minecraft April Fools</t>
-  </si>
-  <si>
-    <t>ماين كرافت كذبة أبريل</t>
-  </si>
-  <si>
-    <t>Minecraft Bedrock Edition</t>
-  </si>
-  <si>
-    <t>إصدار ماين كرافت بيدروك</t>
-  </si>
-  <si>
-    <t>Minecraft Dungeons</t>
-  </si>
-  <si>
-    <t>زنزانات ماين كرافت</t>
-  </si>
-  <si>
-    <t>Minecraft Earth</t>
-  </si>
-  <si>
-    <t>ماين كرافت الأرض</t>
-  </si>
-  <si>
-    <t>Minecraft Education Edition</t>
-  </si>
-  <si>
-    <t>إصدار ماين كرافت التعليمي</t>
-  </si>
-  <si>
-    <t>Minecraft Legends</t>
-  </si>
-  <si>
-    <t>أساطير ماين كرافت</t>
-  </si>
-  <si>
-    <t>Minecraft Live</t>
-  </si>
-  <si>
-    <t>ماين كرافت لايف</t>
-  </si>
-  <si>
-    <t>Minecraft Movie</t>
-  </si>
-  <si>
-    <t>فيلم ماين كرافت</t>
-  </si>
-  <si>
-    <t>Minecraft Story Mode</t>
-  </si>
-  <si>
-    <t>وضع قصة ماين كرافت</t>
-  </si>
-  <si>
-    <t>Miner</t>
-  </si>
-  <si>
-    <t>عامل المناجم</t>
-  </si>
-  <si>
-    <t>Minesweeper</t>
-  </si>
-  <si>
-    <t>كاسحة ألغام</t>
-  </si>
-  <si>
-    <t>Miraculous: Tales of Ladybug &amp; Cat Noir</t>
-  </si>
-  <si>
-    <t>ميراكيلوس حكايات الدعسوقة والقط الأسود</t>
-  </si>
-  <si>
-    <t>Mirai Nikki (Future Diary)</t>
-  </si>
-  <si>
-    <t>ميراي نيكي (يوميات المستقبل)</t>
-  </si>
-  <si>
-    <t>Mirror's Edge</t>
-  </si>
-  <si>
-    <t>حافة المرآة</t>
-  </si>
-  <si>
-    <t>Miss Kobayashi's Dragon Maid</t>
-  </si>
-  <si>
-    <t>خادمة التنين الآنسة كوباياشي</t>
-  </si>
-  <si>
-    <t>Mizuno's Resource Pack</t>
-  </si>
-  <si>
-    <t>حزمة موارد ميزونو</t>
-  </si>
-  <si>
-    <t>Moana</t>
-  </si>
-  <si>
-    <t>موانا</t>
-  </si>
-  <si>
-    <t>Modern Warfare Helmet</t>
-  </si>
-  <si>
-    <t>خوذة الحرب الحديثة</t>
-  </si>
-  <si>
-    <t>Money</t>
-  </si>
-  <si>
-    <t>المال</t>
-  </si>
-  <si>
-    <t>Money Heist</t>
-  </si>
-  <si>
-    <t>سرقة المال</t>
-  </si>
-  <si>
-    <t>Monitor</t>
-  </si>
-  <si>
-    <t>مونيتور</t>
-  </si>
-  <si>
-    <t>Monkey Island</t>
-  </si>
-  <si>
-    <t>جزيرة القرود</t>
-  </si>
-  <si>
-    <t>Monocle</t>
-  </si>
-  <si>
-    <t>مونوكل</t>
-  </si>
-  <si>
-    <t>Monster High</t>
-  </si>
-  <si>
-    <t>مونستر هاي</t>
-  </si>
-  <si>
-    <t>Monster Hunter</t>
-  </si>
-  <si>
-    <t>مونستر هانتر</t>
-  </si>
-  <si>
-    <t>Monsters Inc</t>
-  </si>
-  <si>
-    <t>مونسترز إنك</t>
-  </si>
-  <si>
-    <t>Moomin</t>
-  </si>
-  <si>
-    <t>مومين</t>
-  </si>
-  <si>
-    <t>Mortal Kombat</t>
-  </si>
-  <si>
-    <t>مورتال كومبات</t>
-  </si>
-  <si>
-    <t>Mounts of Mayhem</t>
-  </si>
-  <si>
-    <t>جبال الفوضى</t>
-  </si>
-  <si>
-    <t>Mouthwashing</t>
-  </si>
-  <si>
-    <t>غسيل الفم</t>
-  </si>
-  <si>
-    <t>Mr. Bean</t>
-  </si>
-  <si>
-    <t>مستر بين</t>
-  </si>
-  <si>
-    <t>Mulan</t>
-  </si>
-  <si>
-    <t>مولان</t>
-  </si>
-  <si>
-    <t>Mundo Gaturro</t>
-  </si>
-  <si>
-    <t>موندو جاتورو</t>
-  </si>
-  <si>
-    <t>Muppets</t>
-  </si>
-  <si>
-    <t>الدمى المتحركة</t>
-  </si>
-  <si>
-    <t>Murder Drones</t>
-  </si>
-  <si>
-    <t>طائرات القتل بدون طيار</t>
-  </si>
-  <si>
-    <t>Mushroom</t>
-  </si>
-  <si>
-    <t>الفطر</t>
-  </si>
-  <si>
-    <t>Mushroom (Biome)</t>
-  </si>
-  <si>
-    <t>فطر (منطقة حيوية)</t>
-  </si>
-  <si>
-    <t>Mushroom (Headwear)</t>
-  </si>
-  <si>
-    <t>فطر (غطاء الرأس)</t>
-  </si>
-  <si>
-    <t>Music</t>
-  </si>
-  <si>
-    <t>موسيقى</t>
-  </si>
-  <si>
-    <t>Mustache</t>
-  </si>
-  <si>
-    <t>شارب</t>
-  </si>
-  <si>
-    <t>My Deer Friend Nokotan</t>
-  </si>
-  <si>
-    <t>صديقي الغزال نوكوتان</t>
-  </si>
-  <si>
-    <t>My Hero Academia</t>
-  </si>
-  <si>
-    <t>أكاديميتي بطلي</t>
-  </si>
-  <si>
-    <t>My Little Pony</t>
-  </si>
-  <si>
-    <t>مهرى الصغير</t>
-  </si>
-  <si>
-    <t>My Neighbor Totoro</t>
-  </si>
-  <si>
-    <t>جارتي توتورو</t>
-  </si>
-  <si>
-    <t>My Singing Monsters</t>
-  </si>
-  <si>
-    <t>وحوشي المغنية</t>
-  </si>
-  <si>
-    <t>Naruto</t>
-  </si>
-  <si>
-    <t>ناروتو</t>
-  </si>
-  <si>
-    <t>Nausicaä of the Valley of the Wind</t>
-  </si>
-  <si>
-    <t>ناوسيكا وادي الرياح</t>
-  </si>
-  <si>
-    <t>Nekopara</t>
-  </si>
-  <si>
-    <t>نيكوبارا</t>
-  </si>
-  <si>
-    <t>Neon Genesis Evangelion</t>
-  </si>
-  <si>
-    <t>نيون جينيسيس إيفانجيليون</t>
-  </si>
-  <si>
-    <t>Nether (inspired)</t>
-  </si>
-  <si>
-    <t>نيذر (مستوحاة)</t>
-  </si>
-  <si>
-    <t>Nether (vanilla)</t>
-  </si>
-  <si>
-    <t>نيذر (فانيلا)</t>
-  </si>
-  <si>
-    <t>Neutral Creature</t>
-  </si>
-  <si>
-    <t>مخلوق محايد</t>
-  </si>
-  <si>
-    <t>Neutral Person</t>
-  </si>
-  <si>
-    <t>شخص محايد</t>
-  </si>
-  <si>
-    <t>New Year's Eve</t>
-  </si>
-  <si>
-    <t>ليلة رأس السنة الجديدة</t>
-  </si>
-  <si>
-    <t>NieR: Automata</t>
-  </si>
-  <si>
-    <t>نير: أوتوماتا</t>
-  </si>
-  <si>
-    <t>Night in the Woods</t>
-  </si>
-  <si>
-    <t>ليلة في الغابة</t>
-  </si>
-  <si>
-    <t>Nightmare Before Christmas</t>
-  </si>
-  <si>
-    <t>كابوس قبل عيد الميلاد</t>
-  </si>
-  <si>
-    <t>Ninja Turtles</t>
-  </si>
-  <si>
-    <t>سلاحف النينجا</t>
-  </si>
-  <si>
-    <t>No Game No Life</t>
-  </si>
-  <si>
-    <t>لا لعبة لا حياة</t>
-  </si>
-  <si>
-    <t>No Man's Sky</t>
-  </si>
-  <si>
-    <t>نو مانز سكاي</t>
-  </si>
-  <si>
-    <t>Noel's House Party</t>
-  </si>
-  <si>
-    <t>حفلة منزل نويل</t>
-  </si>
-  <si>
-    <t>Norse Mythology</t>
-  </si>
-  <si>
-    <t>الأساطير الإسكندنافية</t>
-  </si>
-  <si>
-    <t>NPC (Education Edition)</t>
-  </si>
-  <si>
-    <t>NPC (إصدار تعليمي)</t>
-  </si>
-  <si>
-    <t>Nuclear Fallout</t>
-  </si>
-  <si>
-    <t>التداعيات النووية</t>
-  </si>
-  <si>
-    <t>Nuclear Throne</t>
-  </si>
-  <si>
-    <t>العرش النووي</t>
-  </si>
-  <si>
-    <t>Number</t>
-  </si>
-  <si>
-    <t>العدد</t>
-  </si>
-  <si>
-    <t>Nut</t>
-  </si>
-  <si>
-    <t>الجوز</t>
-  </si>
-  <si>
-    <t>Ocean</t>
-  </si>
-  <si>
-    <t>المحيط</t>
-  </si>
-  <si>
-    <t>Octodad</t>
-  </si>
-  <si>
-    <t>أوكتوداد</t>
-  </si>
-  <si>
-    <t>Oddworld</t>
-  </si>
-  <si>
-    <t>أودوورلد</t>
-  </si>
-  <si>
-    <t>OFF</t>
-  </si>
-  <si>
-    <t>أوف</t>
-  </si>
-  <si>
-    <t>Officer Cap</t>
-  </si>
-  <si>
-    <t>الضابط كاب</t>
-  </si>
-  <si>
-    <t>Oggy and the Cockroaches</t>
-  </si>
-  <si>
-    <t>أوجي والصراصير</t>
-  </si>
-  <si>
-    <t>Okegom</t>
-  </si>
-  <si>
-    <t>أوكيغوم</t>
-  </si>
-  <si>
-    <t>Old</t>
-  </si>
-  <si>
-    <t>أوليفر</t>
-  </si>
-  <si>
-    <t>Oliver &amp; Co</t>
-  </si>
-  <si>
-    <t>أوليفر وشركاه</t>
-  </si>
-  <si>
-    <t>Omori</t>
-  </si>
-  <si>
-    <t>أوموري</t>
-  </si>
-  <si>
-    <t>One Piece</t>
-  </si>
-  <si>
-    <t>ون بيس</t>
-  </si>
-  <si>
-    <t>One Punch Man</t>
-  </si>
-  <si>
-    <t>ون بانش مان</t>
-  </si>
-  <si>
-    <t>OneShot</t>
-  </si>
-  <si>
-    <t>ون شوت</t>
-  </si>
-  <si>
-    <t>Ongezellig</t>
-  </si>
-  <si>
-    <t>أونجيزليج</t>
-  </si>
-  <si>
-    <t>Onii-chan wa Oshimai</t>
-  </si>
-  <si>
-    <t>أوني تشان وأوشيماي</t>
-  </si>
-  <si>
-    <t>Open Source Objects</t>
-  </si>
-  <si>
-    <t>كائنات مفتوحة المصدر</t>
-  </si>
-  <si>
-    <t>Orb</t>
-  </si>
-  <si>
-    <t>الجرم السماوي</t>
-  </si>
-  <si>
-    <t>Orc</t>
-  </si>
-  <si>
-    <t>أورك</t>
-  </si>
-  <si>
-    <t>Ore</t>
-  </si>
-  <si>
-    <t>Organs and Bodyparts</t>
-  </si>
-  <si>
-    <t>الأعضاء وأجزاء الجسم</t>
-  </si>
-  <si>
-    <t>Other Headgear</t>
-  </si>
-  <si>
-    <t>أغطية رأس أخرى</t>
-  </si>
-  <si>
-    <t>Other Illumination</t>
-  </si>
-  <si>
-    <t>إضاءة أخرى</t>
-  </si>
-  <si>
-    <t>Other Mystic Creature</t>
-  </si>
-  <si>
-    <t>مخلوقات صوفية أخرى</t>
-  </si>
-  <si>
-    <t>Outer Layer Block</t>
-  </si>
-  <si>
-    <t>كتلة الطبقة الخارجية</t>
-  </si>
-  <si>
-    <t>Overlord</t>
-  </si>
-  <si>
-    <t>أفرلورد</t>
-  </si>
-  <si>
-    <t>Overwatch</t>
-  </si>
-  <si>
-    <t>أوفرواتش</t>
-  </si>
-  <si>
-    <t>Pac-Man</t>
-  </si>
-  <si>
-    <t>باك مان</t>
-  </si>
-  <si>
-    <t>Pacific Rim</t>
-  </si>
-  <si>
-    <t>باسيفيك ريم</t>
-  </si>
-  <si>
-    <t>Pacifier</t>
-  </si>
-  <si>
-    <t>مصاصة</t>
-  </si>
-  <si>
-    <t>Painted Face</t>
-  </si>
-  <si>
-    <t>الوجه الملون</t>
-  </si>
-  <si>
-    <t>Pale Garden (inspired)</t>
-  </si>
-  <si>
-    <t>حديقة شاحبة (مستوحاة)</t>
-  </si>
-  <si>
-    <t>Panda Bear</t>
-  </si>
-  <si>
-    <t>دب الباندا</t>
-  </si>
-  <si>
-    <t>Pans Labyrinth</t>
-  </si>
-  <si>
-    <t>متاهة المقالي</t>
-  </si>
-  <si>
-    <t>Papers Please</t>
-  </si>
-  <si>
-    <t>أوراق من فضلك</t>
-  </si>
-  <si>
-    <t>PaRappa the Rapper</t>
-  </si>
-  <si>
-    <t>مغني الراب بارابا</t>
-  </si>
-  <si>
-    <t>Party</t>
-  </si>
-  <si>
-    <t>حفلة</t>
-  </si>
-  <si>
-    <t>Pastries and Sweets</t>
-  </si>
-  <si>
-    <t>معجنات وحلويات</t>
-  </si>
-  <si>
-    <t>Paw Patrol</t>
-  </si>
-  <si>
-    <t>باو باترول</t>
-  </si>
-  <si>
-    <t>Payday</t>
-  </si>
-  <si>
-    <t>يوم الدفع</t>
-  </si>
-  <si>
-    <t>Peanuts (Snoopy)</t>
-  </si>
-  <si>
-    <t>بيناتس (سنوبي)</t>
-  </si>
-  <si>
-    <t>Penguin</t>
-  </si>
-  <si>
-    <t>البطريق</t>
-  </si>
-  <si>
-    <t>Peppa Pig</t>
-  </si>
-  <si>
-    <t>الخنزير بيبا</t>
-  </si>
-  <si>
-    <t>Periodic Table of Elements</t>
-  </si>
-  <si>
-    <t>الجدول الدوري للعناصر</t>
-  </si>
-  <si>
-    <t>Persona</t>
-  </si>
-  <si>
-    <t>بيرسونا</t>
-  </si>
-  <si>
-    <t>Pet Equipment</t>
-  </si>
-  <si>
-    <t>معدات الحيوانات الأليفة</t>
-  </si>
-  <si>
-    <t>Peter Pan</t>
-  </si>
-  <si>
-    <t>بيتر بان</t>
-  </si>
-  <si>
-    <t>Phantom</t>
-  </si>
-  <si>
-    <t>فانتوم</t>
-  </si>
-  <si>
-    <t>Phineas &amp; Ferb</t>
-  </si>
-  <si>
-    <t>فينياس وفيرب</t>
-  </si>
-  <si>
-    <t>Pig</t>
-  </si>
-  <si>
-    <t>خنزير</t>
-  </si>
-  <si>
-    <t>Piglin</t>
-  </si>
-  <si>
-    <t>بيجلن</t>
-  </si>
-  <si>
-    <t>Pigman</t>
-  </si>
-  <si>
-    <t>بيجمان الخنزير</t>
-  </si>
-  <si>
-    <t>Pikmin</t>
-  </si>
-  <si>
-    <t>بيكمين</t>
-  </si>
-  <si>
-    <t>Pingu</t>
-  </si>
-  <si>
-    <t>بينجو</t>
-  </si>
-  <si>
-    <t>Pink Panther</t>
-  </si>
-  <si>
-    <t>النمر الوردي</t>
-  </si>
-  <si>
-    <t>Pinky and the Brain</t>
-  </si>
-  <si>
-    <t>بينكي والدماغ</t>
-  </si>
-  <si>
-    <t>Pinocchio</t>
-  </si>
-  <si>
-    <t>بينوكيو</t>
-  </si>
-  <si>
-    <t>Pirates of the Caribbean</t>
-  </si>
-  <si>
-    <t>قراصنة الكاريبي</t>
-  </si>
-  <si>
-    <t>Pizza Tower</t>
-  </si>
-  <si>
-    <t>برج البيتزا</t>
-  </si>
-  <si>
-    <t>Planet</t>
-  </si>
-  <si>
-    <t>بلانيت</t>
-  </si>
-  <si>
-    <t>Plants vs. Zombies</t>
-  </si>
-  <si>
-    <t>بلانتس ضد الزومبي</t>
-  </si>
-  <si>
-    <t>Playerunknown's Battlegrounds</t>
-  </si>
-  <si>
-    <t>ساحات قتال اللاعبين المعروفين</t>
-  </si>
-  <si>
-    <t>Pocahontas</t>
-  </si>
-  <si>
-    <t>بوكاهونتاس</t>
-  </si>
-  <si>
-    <t>Pokeball</t>
-  </si>
-  <si>
-    <t>بوكيبول</t>
-  </si>
-  <si>
-    <t>Pokemon</t>
-  </si>
-  <si>
-    <t>بوكيمون</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 1</t>
-  </si>
-  <si>
-    <t>بوكيمون الجيل 1</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 2</t>
-  </si>
-  <si>
-    <t>بوكيمون الجيل 2</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 3</t>
-  </si>
-  <si>
-    <t>بوكيمون الجيل 3</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 4</t>
-  </si>
-  <si>
-    <t>بوكيمون الجيل 4</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 5</t>
-  </si>
-  <si>
-    <t>بوكيمون الجيل 5</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 6</t>
-  </si>
-  <si>
-    <t>بوكيمون الجيل 6</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 7</t>
-  </si>
-  <si>
-    <t>بوكيمون الجيل 7</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 8</t>
-  </si>
-  <si>
-    <t>بوكيمون الجيل 8</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 9</t>
-  </si>
-  <si>
-    <t>جيل بوكيمون بوكيمون 9</t>
-  </si>
-  <si>
-    <t>Pokemon Items</t>
-  </si>
-  <si>
-    <t>عناصر البوكيمون</t>
-  </si>
-  <si>
-    <t>Pokemon Trainer</t>
-  </si>
-  <si>
-    <t>مدرب بوكيمون</t>
-  </si>
-  <si>
-    <t>Polar Bear</t>
-  </si>
-  <si>
-    <t>الدب القطبي</t>
-  </si>
-  <si>
-    <t>Police</t>
-  </si>
-  <si>
-    <t>الشرطة</t>
-  </si>
-  <si>
-    <t>Pom Poko</t>
-  </si>
-  <si>
-    <t>بوم بوكو</t>
-  </si>
-  <si>
-    <t>Ponyo</t>
-  </si>
-  <si>
-    <t>بونيو</t>
-  </si>
-  <si>
-    <t>Pop Team Epic</t>
-  </si>
-  <si>
-    <t>ملحمة فريق البوب تيم</t>
-  </si>
-  <si>
-    <t>POPGOES</t>
-  </si>
-  <si>
-    <t>بوبغوز</t>
-  </si>
-  <si>
-    <t>Poppy Playtime</t>
-  </si>
-  <si>
-    <t>بوبي بلاي تايم</t>
-  </si>
-  <si>
-    <t>Porco Rosso</t>
-  </si>
-  <si>
-    <t>بوركو روسو</t>
-  </si>
-  <si>
-    <t>Portal</t>
-  </si>
-  <si>
-    <t>بورتال</t>
-  </si>
-  <si>
-    <t>Postman Pat</t>
-  </si>
-  <si>
-    <t>بوستمان بات</t>
-  </si>
-  <si>
-    <t>Power Rangers</t>
-  </si>
-  <si>
-    <t>باور رينجرز</t>
-  </si>
-  <si>
-    <t>Powerpuff Girls</t>
-  </si>
-  <si>
-    <t>باورباف جيرلز</t>
-  </si>
-  <si>
-    <t>Predator</t>
-  </si>
-  <si>
-    <t>بريداتور</t>
-  </si>
-  <si>
-    <t>Present</t>
-  </si>
-  <si>
-    <t>الحاضر</t>
-  </si>
-  <si>
-    <t>Pride</t>
-  </si>
-  <si>
-    <t>الكبرياء</t>
-  </si>
-  <si>
-    <t>Primate</t>
-  </si>
-  <si>
-    <t>الرئيسيات</t>
-  </si>
-  <si>
-    <t>Princess Mononoke</t>
-  </si>
-  <si>
-    <t>الأميرة مونونوكي</t>
-  </si>
-  <si>
-    <t>Prof Layton</t>
-  </si>
-  <si>
-    <t>البروفيسور لايتون</t>
-  </si>
-  <si>
-    <t>Pumpkin</t>
-  </si>
-  <si>
-    <t>اليقطين</t>
-  </si>
-  <si>
-    <t>Pumpkin (Lit)</t>
-  </si>
-  <si>
-    <t>اليقطين (مضاءة)</t>
-  </si>
-  <si>
-    <t>Punctuation Mark</t>
-  </si>
-  <si>
-    <t>علامة الترقيم</t>
-  </si>
-  <si>
-    <t>Quake</t>
-  </si>
-  <si>
-    <t>الزلزال</t>
-  </si>
-  <si>
-    <t>R.E.P.O.</t>
-  </si>
-  <si>
-    <t>Rabbit</t>
-  </si>
-  <si>
-    <t>أرنب</t>
-  </si>
-  <si>
-    <t>Railway</t>
-  </si>
-  <si>
-    <t>السكك الحديدية</t>
-  </si>
-  <si>
-    <t>Rain World</t>
-  </si>
-  <si>
-    <t>عالم المطر</t>
-  </si>
-  <si>
-    <t>Ratatouille</t>
-  </si>
-  <si>
-    <t>راتاتاتوي</t>
-  </si>
-  <si>
-    <t>Ratchet &amp; Clank</t>
-  </si>
-  <si>
-    <t>راتشيت وكلانك</t>
-  </si>
-  <si>
-    <t>Re:Creators</t>
-  </si>
-  <si>
-    <t>إعادة:المبدعين</t>
-  </si>
-  <si>
-    <t>Re:Zero</t>
-  </si>
-  <si>
-    <t>إعادة:زيرو</t>
-  </si>
-  <si>
-    <t>Realm of the Mad God</t>
-  </si>
-  <si>
-    <t>عالم الإله المجنون</t>
-  </si>
-  <si>
-    <t>Red Dead Redemption</t>
-  </si>
-  <si>
-    <t>Red Riding Hood</t>
-  </si>
-  <si>
-    <t>ذات الرداء الأحمر</t>
-  </si>
-  <si>
-    <t>Redstone</t>
-  </si>
-  <si>
-    <t>ريدستون</t>
-  </si>
-  <si>
-    <t>Regional Form Pokemon</t>
-  </si>
-  <si>
-    <t>بوكيمون الشكل الإقليمي</t>
-  </si>
-  <si>
-    <t>Regretavator</t>
-  </si>
-  <si>
-    <t>ريجريتافيتور</t>
-  </si>
-  <si>
-    <t>Regular Show</t>
-  </si>
-  <si>
-    <t>عرض عادي</t>
-  </si>
-  <si>
-    <t>Religion</t>
-  </si>
-  <si>
-    <t>الدين</t>
-  </si>
-  <si>
-    <t>Reptile</t>
-  </si>
-  <si>
-    <t>الزواحف</t>
-  </si>
-  <si>
-    <t>Rescue Rangers</t>
-  </si>
-  <si>
-    <t>حراس الإنقاذ</t>
-  </si>
-  <si>
-    <t>Resident Evil</t>
-  </si>
-  <si>
-    <t>الشر المقيم</t>
-  </si>
-  <si>
-    <t>Rhythm Heaven</t>
-  </si>
-  <si>
-    <t>إيقاع السماء</t>
-  </si>
-  <si>
-    <t>Ribbon</t>
-  </si>
-  <si>
-    <t>الشريط</t>
-  </si>
-  <si>
-    <t>Rick and Morty</t>
-  </si>
-  <si>
-    <t>ريك ومورتي</t>
-  </si>
-  <si>
-    <t>Risk of Rain</t>
-  </si>
-  <si>
-    <t>خطر المطر</t>
-  </si>
-  <si>
-    <t>Rival of Aether</t>
-  </si>
-  <si>
-    <t>منافس الأثير</t>
-  </si>
-  <si>
-    <t>River</t>
-  </si>
-  <si>
-    <t>ريفر</t>
-  </si>
-  <si>
-    <t>Riverdale</t>
-  </si>
-  <si>
-    <t>ريفرديل</t>
-  </si>
-  <si>
-    <t>Robin Hood</t>
-  </si>
-  <si>
-    <t>روبن هود</t>
-  </si>
-  <si>
-    <t>Roblox</t>
-  </si>
-  <si>
-    <t>روبلوكس</t>
-  </si>
-  <si>
-    <t>RoboCop</t>
-  </si>
-  <si>
-    <t>الشرطي الآلي</t>
-  </si>
-  <si>
-    <t>Robot</t>
-  </si>
-  <si>
-    <t>روبوت</t>
-  </si>
-  <si>
-    <t>Rocky</t>
-  </si>
-  <si>
-    <t>روكي</t>
-  </si>
-  <si>
-    <t>Rocky Horror Picture Show</t>
-  </si>
-  <si>
-    <t>عرض صور روكي الرعب الصخري</t>
-  </si>
-  <si>
-    <t>Rodent</t>
-  </si>
-  <si>
-    <t>قارض</t>
-  </si>
-  <si>
-    <t>Rotated Entity</t>
-  </si>
-  <si>
-    <t>الكيان الدوار</t>
-  </si>
-  <si>
-    <t>Royal Headgear</t>
-  </si>
-  <si>
-    <t>غطاء الرأس الملكي</t>
-  </si>
-  <si>
-    <t>Rune</t>
-  </si>
-  <si>
-    <t>رون</t>
-  </si>
-  <si>
-    <t>Runescape</t>
-  </si>
-  <si>
-    <t>رونسكيب</t>
-  </si>
-  <si>
-    <t>RWBY</t>
-  </si>
-  <si>
-    <t>روبي</t>
-  </si>
-  <si>
-    <t>Sackboy: A Big Adventure</t>
-  </si>
-  <si>
-    <t>ساك بوي مغامرة كبيرة</t>
-  </si>
-  <si>
-    <t>Sad Creature</t>
-  </si>
-  <si>
-    <t>مخلوق حزين</t>
-  </si>
-  <si>
-    <t>Sad Person</t>
-  </si>
-  <si>
-    <t>شخص حزين</t>
-  </si>
-  <si>
-    <t>Safari (Other)</t>
-  </si>
-  <si>
-    <t>سفاري (أخرى)</t>
-  </si>
-  <si>
-    <t>Saga of Tanya the Evil</t>
-  </si>
-  <si>
-    <t>ملحمة تانيا الشريرة</t>
-  </si>
-  <si>
-    <t>Sailor Moon</t>
-  </si>
-  <si>
-    <t>سايلر مون</t>
-  </si>
-  <si>
-    <t>Sakurasou no Pet na Kanojo</t>
-  </si>
-  <si>
-    <t>ساكوراسو نو بيت نا كانوجو</t>
-  </si>
-  <si>
-    <t>Samurai Helmet</t>
-  </si>
-  <si>
-    <t>خوذة الساموراي</t>
-  </si>
-  <si>
-    <t>Satisfactory</t>
-  </si>
-  <si>
-    <t>مرضية</t>
-  </si>
-  <si>
-    <t>Saw</t>
-  </si>
-  <si>
-    <t>المنشار</t>
-  </si>
-  <si>
-    <t>Scarf</t>
-  </si>
-  <si>
-    <t>وشاح</t>
-  </si>
-  <si>
-    <t>Scooby-Doo</t>
-  </si>
-  <si>
-    <t>سكوبي دو</t>
-  </si>
-  <si>
-    <t>SCP Containment Breach</t>
-  </si>
-  <si>
-    <t>خرق احتواء SCP</t>
-  </si>
-  <si>
-    <t>Scream</t>
-  </si>
-  <si>
-    <t>الصرخة</t>
-  </si>
-  <si>
-    <t>Scribblenauts</t>
-  </si>
-  <si>
-    <t>سكريبلينوتس</t>
-  </si>
-  <si>
-    <t>Sea of Thieves</t>
-  </si>
-  <si>
-    <t>بحر اللصوص</t>
-  </si>
-  <si>
-    <t>Seafarer</t>
-  </si>
-  <si>
-    <t>Seraph of the End</t>
-  </si>
-  <si>
-    <t>سيراف أوف ذا إند</t>
-  </si>
-  <si>
-    <t>Serial Experiments Lain</t>
-  </si>
-  <si>
-    <t>التجارب المتسلسلة لايين</t>
-  </si>
-  <si>
-    <t>Sesame Street</t>
-  </si>
-  <si>
-    <t>شارع السمسم</t>
-  </si>
-  <si>
-    <t>Seven Deadly Sins</t>
-  </si>
-  <si>
-    <t>الخطايا السبع المميتة</t>
-  </si>
-  <si>
-    <t>Shadow of the Colossus</t>
-  </si>
-  <si>
-    <t>ظل العملاق</t>
-  </si>
-  <si>
-    <t>Shadows of Mordor</t>
-  </si>
-  <si>
-    <t>ظلال موردور</t>
-  </si>
-  <si>
-    <t>Sheep</t>
-  </si>
-  <si>
-    <t>خروف</t>
-  </si>
-  <si>
-    <t>Sherlock Holmes</t>
-  </si>
-  <si>
-    <t>شيرلوك هولمز</t>
-  </si>
-  <si>
-    <t>Shigatsu wa Kimi no Uso</t>
-  </si>
-  <si>
-    <t>شيغاتسو وا كيمي نو أوسو</t>
-  </si>
-  <si>
-    <t>Shimoneta</t>
-  </si>
-  <si>
-    <t>شيمونيتا</t>
-  </si>
-  <si>
-    <t>Shiny Pokemon</t>
-  </si>
-  <si>
-    <t>بوكيمون لامعة</t>
-  </si>
-  <si>
-    <t>Shipping</t>
-  </si>
-  <si>
-    <t>الشحن</t>
-  </si>
-  <si>
-    <t>Shovel Knight</t>
-  </si>
-  <si>
-    <t>شوفيل نايت</t>
-  </si>
-  <si>
-    <t>Shrek</t>
-  </si>
-  <si>
-    <t>شريك</t>
-  </si>
-  <si>
-    <t>Shulker</t>
-  </si>
-  <si>
-    <t>شولكر</t>
-  </si>
-  <si>
-    <t>Silent Hill</t>
-  </si>
-  <si>
-    <t>التل الصامت</t>
-  </si>
-  <si>
-    <t>SilvaGunner</t>
-  </si>
-  <si>
-    <t>سيلفا غنر</t>
-  </si>
-  <si>
-    <t>Simpsons</t>
-  </si>
-  <si>
-    <t>سيمبسونز</t>
-  </si>
-  <si>
-    <t>Skeleton</t>
-  </si>
-  <si>
-    <t>الهيكل العظمي</t>
-  </si>
-  <si>
-    <t>Skeleton (Vanilla)</t>
-  </si>
-  <si>
-    <t>هيكل عظمي (فانيلا)</t>
-  </si>
-  <si>
-    <t>Skeptical Creature</t>
-  </si>
-  <si>
-    <t>مخلوق متشكك</t>
-  </si>
-  <si>
-    <t>Skeptical Person</t>
-  </si>
-  <si>
-    <t>شخص متشكك</t>
-  </si>
-  <si>
-    <t>Skullgirls</t>
-  </si>
-  <si>
-    <t>فتيات الجمجمة</t>
-  </si>
-  <si>
-    <t>Skyrim</t>
-  </si>
-  <si>
-    <t>سكاي ريم</t>
-  </si>
-  <si>
-    <t>Sleeping Beauty</t>
-  </si>
-  <si>
-    <t>الجميلة النائمة</t>
-  </si>
-  <si>
-    <t>Sleeping Creature</t>
-  </si>
-  <si>
-    <t>مخلوق نائم</t>
-  </si>
-  <si>
-    <t>Sleeping Person</t>
-  </si>
-  <si>
-    <t>شخص نائم</t>
-  </si>
-  <si>
-    <t>Sliced</t>
-  </si>
-  <si>
-    <t>شرائح</t>
-  </si>
-  <si>
-    <t>Slime</t>
-  </si>
-  <si>
-    <t>الوحل</t>
-  </si>
-  <si>
-    <t>Slime (Vanilla)</t>
-  </si>
-  <si>
-    <t>سلايم (فانيليا)</t>
-  </si>
-  <si>
-    <t>Slime Rancher</t>
-  </si>
-  <si>
-    <t>سلايم رانشر الوحل</t>
-  </si>
-  <si>
-    <t>Slimefun</t>
-  </si>
-  <si>
-    <t>سلايم فن</t>
-  </si>
-  <si>
-    <t>Sly Cooper</t>
-  </si>
-  <si>
-    <t>سلايم كوبر</t>
-  </si>
-  <si>
-    <t>Smite Gods</t>
-  </si>
-  <si>
-    <t>سمايت جودز</t>
-  </si>
-  <si>
-    <t>Smoking</t>
-  </si>
-  <si>
-    <t>سموكينغ</t>
-  </si>
-  <si>
-    <t>Smurfs</t>
-  </si>
-  <si>
-    <t>السنافر</t>
-  </si>
-  <si>
-    <t>Snow Fight</t>
-  </si>
-  <si>
-    <t>قتال الثلج</t>
-  </si>
-  <si>
-    <t>Snow Sculpture</t>
-  </si>
-  <si>
-    <t>نحت الثلج</t>
-  </si>
-  <si>
-    <t>Snow White and the Seven Dwarfs</t>
-  </si>
-  <si>
-    <t>بياض الثلج والأقزام السبعة</t>
-  </si>
-  <si>
-    <t>Songs of War</t>
-  </si>
-  <si>
-    <t>أغاني الحرب</t>
-  </si>
-  <si>
-    <t>Sonic the Hedgehog</t>
-  </si>
-  <si>
-    <t>سونيك القنفذ</t>
-  </si>
-  <si>
-    <t>Soul Knight</t>
-  </si>
-  <si>
-    <t>فارس الروح</t>
-  </si>
-  <si>
-    <t>South Park</t>
-  </si>
-  <si>
-    <t>ساوث بارك</t>
-  </si>
-  <si>
-    <t>Space Travel</t>
-  </si>
-  <si>
-    <t>السفر في الفضاء</t>
-  </si>
-  <si>
-    <t>Spawn Egg</t>
-  </si>
-  <si>
-    <t>بيضة تفرخ</t>
-  </si>
-  <si>
-    <t>Spawner</t>
-  </si>
-  <si>
-    <t>سبونر</t>
-  </si>
-  <si>
-    <t>Spelunky</t>
-  </si>
-  <si>
-    <t>سبيلنكي</t>
-  </si>
-  <si>
-    <t>Spider</t>
-  </si>
-  <si>
-    <t>العنكبوت</t>
-  </si>
-  <si>
-    <t>Spider (Vanilla)</t>
-  </si>
-  <si>
-    <t>العنكبوت (فانيلا)</t>
-  </si>
-  <si>
-    <t>Spiderman</t>
-  </si>
-  <si>
-    <t>سبايدرمان</t>
-  </si>
-  <si>
-    <t>Spirited Away</t>
-  </si>
-  <si>
-    <t>سبيريتد أواي</t>
-  </si>
-  <si>
-    <t>Splatoon</t>
-  </si>
-  <si>
-    <t>سبلاتون</t>
-  </si>
-  <si>
-    <t>Spongebob Squarepants</t>
-  </si>
-  <si>
-    <t>سبونج بوب سكوير بانتس</t>
-  </si>
-  <si>
-    <t>Spooky's Jump Scare Mansion</t>
-  </si>
-  <si>
-    <t>قصر سبوكي المخيف القافز المخيف</t>
-  </si>
-  <si>
-    <t>Spore</t>
-  </si>
-  <si>
-    <t>أبواغ</t>
-  </si>
-  <si>
-    <t>Sport</t>
-  </si>
-  <si>
-    <t>الرياضة</t>
-  </si>
-  <si>
-    <t>Spreads</t>
-  </si>
-  <si>
-    <t>سبريدز</t>
-  </si>
-  <si>
-    <t>Spring to Life</t>
-  </si>
-  <si>
-    <t>سبرينغ تو لايف</t>
-  </si>
-  <si>
-    <t>Spy x Family</t>
-  </si>
-  <si>
-    <t>جاسوس × العائلة</t>
-  </si>
-  <si>
-    <t>Spyro</t>
-  </si>
-  <si>
-    <t>سبيرو</t>
-  </si>
-  <si>
-    <t>Squid Game</t>
-  </si>
-  <si>
-    <t>لعبة الحبار</t>
-  </si>
-  <si>
-    <t>St. Patrick's Day</t>
-  </si>
-  <si>
-    <t>عيد القديس باتريك</t>
-  </si>
-  <si>
-    <t>StackUp</t>
-  </si>
-  <si>
-    <t>ستاك أب</t>
-  </si>
-  <si>
-    <t>Star Fox</t>
-  </si>
-  <si>
-    <t>ستار فوكس</t>
-  </si>
-  <si>
-    <t>Star Trek</t>
-  </si>
-  <si>
-    <t>ستار تريك</t>
-  </si>
-  <si>
-    <t>Star vs the Forces of Evil</t>
-  </si>
-  <si>
-    <t>ستار ضد قوى الشر</t>
-  </si>
-  <si>
-    <t>Star Wars</t>
-  </si>
-  <si>
-    <t>حرب النجوم</t>
-  </si>
-  <si>
-    <t>Star Wars Helmet</t>
-  </si>
-  <si>
-    <t>خوذة حرب النجوم</t>
-  </si>
-  <si>
-    <t>Star Wars Trooper Helmet</t>
-  </si>
-  <si>
-    <t>خوذة جنود حرب النجوم</t>
-  </si>
-  <si>
-    <t>Starbucks</t>
-  </si>
-  <si>
-    <t>ستاربكس</t>
-  </si>
-  <si>
-    <t>StarCraft</t>
-  </si>
-  <si>
-    <t>ستار كرافت</t>
-  </si>
-  <si>
-    <t>Stardew Valley</t>
-  </si>
-  <si>
-    <t>وادي ستارديو</t>
-  </si>
-  <si>
-    <t>Starter Pokemon</t>
-  </si>
-  <si>
-    <t>بوكيمون المبتدئين</t>
-  </si>
-  <si>
-    <t>Stationery</t>
-  </si>
-  <si>
-    <t>قرطاسية</t>
-  </si>
-  <si>
-    <t>Steampunk</t>
-  </si>
-  <si>
-    <t>ستيمبانك</t>
-  </si>
-  <si>
-    <t>Steins;Gate</t>
-  </si>
-  <si>
-    <t>Steve</t>
-  </si>
-  <si>
-    <t>ستيف</t>
-  </si>
-  <si>
-    <t>Steven Universe</t>
-  </si>
-  <si>
-    <t>ستيفن يونيفرس</t>
-  </si>
-  <si>
-    <t>Stone</t>
-  </si>
-  <si>
-    <t>ستون</t>
-  </si>
-  <si>
-    <t>Storage (other)</t>
-  </si>
-  <si>
-    <t>تخزين (أخرى)</t>
-  </si>
-  <si>
-    <t>Stranger Things</t>
-  </si>
-  <si>
-    <t>أشياء غريبة</t>
-  </si>
-  <si>
-    <t>Street Fighter</t>
-  </si>
-  <si>
-    <t>ستريت فايتر</t>
-  </si>
-  <si>
-    <t>Strider</t>
-  </si>
-  <si>
-    <t>سترايدر</t>
-  </si>
-  <si>
-    <t>Subnautica</t>
-  </si>
-  <si>
-    <t>سوبناوتيكا</t>
-  </si>
-  <si>
-    <t>Summer</t>
-  </si>
-  <si>
-    <t>سمر</t>
-  </si>
-  <si>
-    <t>Sunglasses</t>
-  </si>
-  <si>
-    <t>نظارات شمسية</t>
-  </si>
-  <si>
-    <t>Super Mario</t>
-  </si>
-  <si>
-    <t>سوبر ماريو</t>
-  </si>
-  <si>
-    <t>Supernatural</t>
-  </si>
-  <si>
-    <t>خارق للطبيعة</t>
-  </si>
-  <si>
-    <t>Surprised Creature</t>
-  </si>
-  <si>
-    <t>مخلوق متفاجئ</t>
-  </si>
-  <si>
-    <t>Surprised Person</t>
-  </si>
-  <si>
-    <t>شخص متفاجئ</t>
-  </si>
-  <si>
-    <t>Sushi</t>
-  </si>
-  <si>
-    <t>سوشي</t>
-  </si>
-  <si>
-    <t>Swamp</t>
-  </si>
-  <si>
-    <t>مستنقع</t>
-  </si>
-  <si>
-    <t>Sword Art Online</t>
-  </si>
-  <si>
-    <t>سيف الفن على الإنترنت</t>
-  </si>
-  <si>
-    <t>TaleSpin</t>
-  </si>
-  <si>
-    <t>تاليسبين</t>
-  </si>
-  <si>
-    <t>Tangled</t>
-  </si>
-  <si>
-    <t>متشابك</t>
-  </si>
-  <si>
-    <t>Tattletail</t>
-  </si>
-  <si>
-    <t>الثرثرة</t>
-  </si>
-  <si>
-    <t>Team Fortress 2</t>
-  </si>
-  <si>
-    <t>فريق القلعة 2</t>
-  </si>
-  <si>
-    <t>Teletubbies</t>
-  </si>
-  <si>
-    <t>تيليتوبيس</t>
-  </si>
-  <si>
-    <t>Terraria</t>
-  </si>
-  <si>
-    <t>تيراريا</t>
-  </si>
-  <si>
-    <t>Terraria (Calamity)</t>
-  </si>
-  <si>
-    <t>تيراريا (مصيبة)</t>
-  </si>
-  <si>
-    <t>Tetris</t>
-  </si>
-  <si>
-    <t>تيتريس</t>
-  </si>
-  <si>
-    <t>Thanksgiving</t>
-  </si>
-  <si>
-    <t>عيد الشكر</t>
-  </si>
-  <si>
-    <t>That Time I Got Reincarnated as a Slime</t>
-  </si>
-  <si>
-    <t>تلك المرة التي تجسدت فيها في هيئة سلايم</t>
-  </si>
-  <si>
-    <t>Thaumcraft</t>
-  </si>
-  <si>
-    <t>ثومكرافت</t>
-  </si>
-  <si>
-    <t>The Adventures of Tintin</t>
-  </si>
-  <si>
-    <t>مغامرات تان تان تان تان</t>
-  </si>
-  <si>
-    <t>The Amazing Digital Circus</t>
-  </si>
-  <si>
-    <t>السيرك الرقمي المذهل</t>
-  </si>
-  <si>
-    <t>The Amazing World of Gumball</t>
-  </si>
-  <si>
-    <t>عالم غامبول المذهل</t>
-  </si>
-  <si>
-    <t>The Binding of Isaac</t>
-  </si>
-  <si>
-    <t>ملزمة إسحاق</t>
-  </si>
-  <si>
-    <t>The Boys</t>
-  </si>
-  <si>
-    <t>الأولاد</t>
-  </si>
-  <si>
-    <t>The Cat Returns</t>
-  </si>
-  <si>
-    <t>عودة القطة</t>
-  </si>
-  <si>
-    <t>The Conjuring</t>
-  </si>
-  <si>
-    <t>The Copper Age</t>
-  </si>
-  <si>
-    <t>العصر النحاسي</t>
-  </si>
-  <si>
-    <t>The Emperor's New Groove</t>
-  </si>
-  <si>
-    <t>أخدود الإمبراطور الجديد</t>
-  </si>
-  <si>
-    <t>The English Ensemble Stars</t>
-  </si>
-  <si>
-    <t>نجوم الفرقة الإنجليزية</t>
-  </si>
-  <si>
-    <t>The Fairly OddParents</t>
-  </si>
-  <si>
-    <t>The Finals</t>
-  </si>
-  <si>
-    <t>النهائيات</t>
-  </si>
-  <si>
-    <t>The Flash</t>
-  </si>
-  <si>
-    <t>ذا فلاش</t>
-  </si>
-  <si>
-    <t>The Flintstones</t>
-  </si>
-  <si>
-    <t>ذا فلينستونز</t>
-  </si>
-  <si>
-    <t>The Fly</t>
-  </si>
-  <si>
-    <t>الذبابة</t>
-  </si>
-  <si>
-    <t>The Garden Awakens</t>
-  </si>
-  <si>
-    <t>The Good Dinosaur</t>
-  </si>
-  <si>
-    <t>الديناصور الجيد</t>
-  </si>
-  <si>
-    <t>The Great Mouse Detective</t>
-  </si>
-  <si>
-    <t>المحقق الفأر العظيم</t>
-  </si>
-  <si>
-    <t>The Grim Adventures of Billy &amp; Mandy</t>
-  </si>
-  <si>
-    <t>المغامرات القاتمة لبيلي وماندي</t>
-  </si>
-  <si>
-    <t>The Hunchback of Notre Dame</t>
-  </si>
-  <si>
-    <t>أحدب نوتردام</t>
-  </si>
-  <si>
-    <t>The Iron Giant</t>
-  </si>
-  <si>
-    <t>العملاق الحديدي</t>
-  </si>
-  <si>
-    <t>The Last Guardian</t>
-  </si>
-  <si>
-    <t>الحارس الأخير</t>
-  </si>
-  <si>
-    <t>The Last of Us</t>
-  </si>
-  <si>
-    <t>آخرنا</t>
-  </si>
-  <si>
-    <t>The Legend of Zelda</t>
-  </si>
-  <si>
-    <t>أسطورة زيلدا</t>
-  </si>
-  <si>
-    <t>The Lorax</t>
-  </si>
-  <si>
-    <t>ذا لوراكس</t>
-  </si>
-  <si>
-    <t>The Neverhood</t>
-  </si>
-  <si>
-    <t>نيفرهود</t>
-  </si>
-  <si>
-    <t>The Owl House</t>
-  </si>
-  <si>
-    <t>بيت البومة</t>
-  </si>
-  <si>
-    <t>The Princess and the Frog</t>
-  </si>
-  <si>
-    <t>الأميرة والضفدع</t>
-  </si>
-  <si>
-    <t>The Ren &amp; Stimpy Show</t>
-  </si>
-  <si>
-    <t>عرض رين وستيمبي</t>
-  </si>
-  <si>
-    <t>The Road to El Dorado</t>
-  </si>
-  <si>
-    <t>الطريق إلى الدورادو</t>
-  </si>
-  <si>
-    <t>The Texas Chainsaw Massacre</t>
-  </si>
-  <si>
-    <t>مذبحة منشار تكساس</t>
-  </si>
-  <si>
-    <t>The Three Caballeros</t>
-  </si>
-  <si>
-    <t>The Walten Files</t>
-  </si>
-  <si>
-    <t>ملفات والتين</t>
-  </si>
-  <si>
-    <t>The Woody Woodpecker Show</t>
-  </si>
-  <si>
-    <t>عرض وودي ونقار الخشب</t>
-  </si>
-  <si>
-    <t>Thomas &amp; Friends</t>
-  </si>
-  <si>
-    <t>توماس والأصدقاء</t>
-  </si>
-  <si>
-    <t>Thor</t>
-  </si>
-  <si>
-    <t>ثور</t>
-  </si>
-  <si>
-    <t>Those Nights at Rachel's</t>
-  </si>
-  <si>
-    <t>تلك الليالي عند راشيلز</t>
-  </si>
-  <si>
-    <t>Tinker's Construct</t>
-  </si>
-  <si>
-    <t>تينكرز كونستركت</t>
-  </si>
-  <si>
-    <t>Titanfall</t>
-  </si>
-  <si>
-    <t>تيتان فول</t>
-  </si>
-  <si>
-    <t>Tokyo Ghoul</t>
-  </si>
-  <si>
-    <t>غول طوكيو</t>
-  </si>
-  <si>
-    <t>Tom and Jerry</t>
-  </si>
-  <si>
-    <t>توم وجيري</t>
-  </si>
-  <si>
-    <t>Tomb Raider</t>
-  </si>
-  <si>
-    <t>تومب رايدر</t>
-  </si>
-  <si>
-    <t>Tomorrow's Pioneers</t>
-  </si>
-  <si>
-    <t>رواد الغد</t>
-  </si>
-  <si>
-    <t>Tooth Gap</t>
-  </si>
-  <si>
-    <t>توث جاب</t>
-  </si>
-  <si>
-    <t>Toradora</t>
-  </si>
-  <si>
-    <t>تورادورا</t>
-  </si>
-  <si>
-    <t>Total Drama Island</t>
-  </si>
-  <si>
-    <t>جزيرة الدراما الكاملة</t>
-  </si>
-  <si>
-    <t>Touhou Project</t>
-  </si>
-  <si>
-    <t>مشروع توهو</t>
-  </si>
-  <si>
-    <t>Toy</t>
-  </si>
-  <si>
-    <t>توي</t>
-  </si>
-  <si>
-    <t>Toy Story</t>
-  </si>
-  <si>
-    <t>قصة لعبة</t>
-  </si>
-  <si>
-    <t>Traffic</t>
-  </si>
-  <si>
-    <t>المرور</t>
-  </si>
-  <si>
-    <t>Traffic Light</t>
-  </si>
-  <si>
-    <t>إشارة المرور</t>
-  </si>
-  <si>
-    <t>Traffic Sign</t>
-  </si>
-  <si>
-    <t>Trails and Tales</t>
-  </si>
-  <si>
-    <t>مسارات وحكايات</t>
-  </si>
-  <si>
-    <t>Transformers</t>
-  </si>
-  <si>
-    <t>المتحولون</t>
-  </si>
-  <si>
-    <t>Transformice</t>
-  </si>
-  <si>
-    <t>ترانسفورميس</t>
-  </si>
-  <si>
-    <t>Transparent Head</t>
-  </si>
-  <si>
-    <t>الرأس الشفاف</t>
-  </si>
-  <si>
-    <t>Trash Can</t>
-  </si>
-  <si>
-    <t>سلة المهملات</t>
-  </si>
-  <si>
-    <t>Treasure</t>
-  </si>
-  <si>
-    <t>كنز</t>
-  </si>
-  <si>
-    <t>Treasure Planet</t>
-  </si>
-  <si>
-    <t>كوكب الكنز</t>
-  </si>
-  <si>
-    <t>Tricky Trials Update</t>
-  </si>
-  <si>
-    <t>تحديث التجارب الصعبة</t>
-  </si>
-  <si>
-    <t>Tron</t>
-  </si>
-  <si>
-    <t>ترون</t>
-  </si>
-  <si>
-    <t>Turtle</t>
-  </si>
-  <si>
-    <t>السلحفاة</t>
-  </si>
-  <si>
-    <t>Twilight Forest</t>
-  </si>
-  <si>
-    <t>غابة الشفق</t>
-  </si>
-  <si>
-    <t>Twisted Wonderland</t>
-  </si>
-  <si>
-    <t>أرض العجائب الملتوية</t>
-  </si>
-  <si>
-    <t>Ultrakill</t>
-  </si>
-  <si>
-    <t>ألترا كيل</t>
-  </si>
-  <si>
-    <t>Umineko - When They Cry</t>
-  </si>
-  <si>
-    <t>أومينيكو - عندما يبكون</t>
-  </si>
-  <si>
-    <t>Undertale</t>
-  </si>
-  <si>
-    <t>أندرتيل</t>
-  </si>
-  <si>
-    <t>Undertale AU</t>
-  </si>
-  <si>
-    <t>أندرتيل AU</t>
-  </si>
-  <si>
-    <t>Undertale Yellow</t>
-  </si>
-  <si>
-    <t>Universal Symbol</t>
-  </si>
-  <si>
-    <t>الرمز العالمي</t>
-  </si>
-  <si>
-    <t>Up</t>
-  </si>
-  <si>
-    <t>فوق</t>
-  </si>
-  <si>
-    <t>Urban Wildlife</t>
-  </si>
-  <si>
-    <t>الحياة البرية الحضرية</t>
-  </si>
-  <si>
-    <t>V for Vendetta</t>
-  </si>
-  <si>
-    <t>Valentines</t>
-  </si>
-  <si>
-    <t>فالنتاينز</t>
-  </si>
-  <si>
-    <t>Valorant</t>
-  </si>
-  <si>
-    <t>فالورانت</t>
-  </si>
-  <si>
-    <t>Vanilla (removed)</t>
-  </si>
-  <si>
-    <t>فانيلا (تمت إزالته)</t>
-  </si>
-  <si>
-    <t>Vanilla Block</t>
-  </si>
-  <si>
-    <t>كتلة الفانيليا</t>
-  </si>
-  <si>
-    <t>Vanilla Food</t>
-  </si>
-  <si>
-    <t>طعام الفانيليا</t>
-  </si>
-  <si>
-    <t>Vanilla Helmet</t>
-  </si>
-  <si>
-    <t>خوذة الفانيليا</t>
-  </si>
-  <si>
-    <t>Vanilla Item</t>
-  </si>
-  <si>
-    <t>عنصر فانيلا</t>
-  </si>
-  <si>
-    <t>Vanilla Mob</t>
-  </si>
-  <si>
-    <t>غوغاء الفانيليا</t>
-  </si>
-  <si>
-    <t>Vault Hunters</t>
-  </si>
-  <si>
-    <t>صيادو القبو</t>
-  </si>
-  <si>
-    <t>Vegetable</t>
-  </si>
-  <si>
-    <t>خضروات</t>
-  </si>
-  <si>
-    <t>Vehicle</t>
-  </si>
-  <si>
-    <t>مركبة</t>
-  </si>
-  <si>
-    <t>Vikings</t>
-  </si>
-  <si>
-    <t>الفايكنج</t>
-  </si>
-  <si>
-    <t>Villager</t>
-  </si>
-  <si>
-    <t>قروي</t>
-  </si>
-  <si>
-    <t>Villager (Desert)</t>
-  </si>
-  <si>
-    <t>قروي (صحراوي)</t>
-  </si>
-  <si>
-    <t>Villager (Jungle)</t>
-  </si>
-  <si>
-    <t>قروي (الغابة)</t>
-  </si>
-  <si>
-    <t>Villager (Plains)</t>
-  </si>
-  <si>
-    <t>قروي (السهول)</t>
-  </si>
-  <si>
-    <t>Villager (Savanna)</t>
-  </si>
-  <si>
-    <t>قروي (سافانا)</t>
-  </si>
-  <si>
-    <t>Villager (Snowy Tundra)</t>
-  </si>
-  <si>
-    <t>قروي (التندرا الثلجية)</t>
-  </si>
-  <si>
-    <t>Villager (Swamp)</t>
-  </si>
-  <si>
-    <t>قروي (مستنقع)</t>
-  </si>
-  <si>
-    <t>Villager (Taiga)</t>
-  </si>
-  <si>
-    <t>قروي (تايغا)</t>
-  </si>
-  <si>
-    <t>Virtual Youtuber</t>
-  </si>
-  <si>
-    <t>قروي افتراضي</t>
-  </si>
-  <si>
-    <t>Vocaloid</t>
-  </si>
-  <si>
-    <t>فوكالويد</t>
-  </si>
-  <si>
-    <t>Voltron</t>
-  </si>
-  <si>
-    <t>فولترون</t>
-  </si>
-  <si>
-    <t>Wakfu</t>
-  </si>
-  <si>
-    <t>واكفو</t>
-  </si>
-  <si>
-    <t>Walking Dead</t>
-  </si>
-  <si>
-    <t>الموتى السائرون</t>
-  </si>
-  <si>
-    <t>Wall-E</t>
-  </si>
-  <si>
-    <t>وال-إي</t>
-  </si>
-  <si>
-    <t>Wallace and Gromit</t>
-  </si>
-  <si>
-    <t>والاس وجروميت</t>
-  </si>
-  <si>
-    <t>War of the Worlds</t>
-  </si>
-  <si>
-    <t>حرب العوالم</t>
-  </si>
-  <si>
-    <t>Warcraft</t>
-  </si>
-  <si>
-    <t>واركرافت</t>
-  </si>
-  <si>
-    <t>Warframe</t>
-  </si>
-  <si>
-    <t>وارفريم</t>
-  </si>
-  <si>
-    <t>Warhammer</t>
-  </si>
-  <si>
-    <t>Warrior Cats</t>
-  </si>
-  <si>
-    <t>القطط المحاربة</t>
-  </si>
-  <si>
-    <t>We Bear Bears</t>
-  </si>
-  <si>
-    <t>نحن دببة الدببة</t>
-  </si>
-  <si>
-    <t>We Happy Few</t>
-  </si>
-  <si>
-    <t>نحن القلة السعداء</t>
-  </si>
-  <si>
-    <t>Weather</t>
-  </si>
-  <si>
-    <t>الطقس</t>
-  </si>
-  <si>
-    <t>Welcome Home</t>
-  </si>
-  <si>
-    <t>مرحبًا بك في بيتك</t>
-  </si>
-  <si>
-    <t>Who is this?</t>
-  </si>
-  <si>
-    <t>من هذا؟</t>
-  </si>
-  <si>
-    <t>Wild Update</t>
-  </si>
-  <si>
-    <t>تحديث البرية</t>
-  </si>
-  <si>
-    <t>Wings of Fire</t>
-  </si>
-  <si>
-    <t>أجنحة النار</t>
-  </si>
-  <si>
-    <t>Winnie the Pooh</t>
-  </si>
-  <si>
-    <t>ويني ذا بوو</t>
-  </si>
-  <si>
-    <t>Winter</t>
-  </si>
-  <si>
-    <t>وينتر</t>
-  </si>
-  <si>
-    <t>Witcher</t>
-  </si>
-  <si>
-    <t>ويتشر</t>
-  </si>
-  <si>
-    <t>Wonderful Wonder World</t>
-  </si>
-  <si>
-    <t>عالم العجائب الرائع</t>
-  </si>
-  <si>
-    <t>Wood</t>
-  </si>
-  <si>
-    <t>خشب</t>
-  </si>
-  <si>
-    <t>Wool</t>
-  </si>
-  <si>
-    <t>صوف</t>
-  </si>
-  <si>
-    <t>Work Safety Helmet</t>
-  </si>
-  <si>
-    <t>خوذة سلامة العمل</t>
-  </si>
-  <si>
-    <t>Wreck It Ralph</t>
-  </si>
-  <si>
-    <t>وريك إت رالف</t>
-  </si>
-  <si>
-    <t>Wybel</t>
-  </si>
-  <si>
-    <t>ويبل</t>
-  </si>
-  <si>
-    <t>Wynncraft</t>
-  </si>
-  <si>
-    <t>وينكرافت</t>
-  </si>
-  <si>
-    <t>X-Men</t>
-  </si>
-  <si>
-    <t>إكس-مين</t>
-  </si>
-  <si>
-    <t>Xenoblade Chronicles</t>
-  </si>
-  <si>
-    <t>زينوبليد كرونيكلز</t>
-  </si>
-  <si>
-    <t>Yandere Simulator</t>
-  </si>
-  <si>
-    <t>محاكي ياندير</t>
-  </si>
-  <si>
-    <t>Yellow Submarine</t>
-  </si>
-  <si>
-    <t>الغواصة الصفراء</t>
-  </si>
-  <si>
-    <t>Yokai</t>
-  </si>
-  <si>
-    <t>يوكاي</t>
-  </si>
-  <si>
-    <t>Yooka Laylee</t>
-  </si>
-  <si>
-    <t>يوكا ليلي</t>
-  </si>
-  <si>
-    <t>Young</t>
-  </si>
-  <si>
-    <t>يونغ</t>
-  </si>
-  <si>
-    <t>Youtube</t>
-  </si>
-  <si>
-    <t>يوتيوب</t>
-  </si>
-  <si>
-    <t>Yu-Gi-Oh</t>
-  </si>
-  <si>
-    <t>يو-جي-أوه</t>
-  </si>
-  <si>
-    <t>Yume Nikki</t>
-  </si>
-  <si>
-    <t>يومي نيكي</t>
-  </si>
-  <si>
-    <t>Zero no Tsukaima</t>
-  </si>
-  <si>
-    <t>زيرو نو تسوكايما</t>
-  </si>
-  <si>
-    <t>Zero Wing</t>
-  </si>
-  <si>
-    <t>زيرو وينج</t>
-  </si>
-  <si>
-    <t>Zodiac Sign</t>
-  </si>
-  <si>
-    <t>علامة زودياك</t>
-  </si>
-  <si>
-    <t>Zombie</t>
-  </si>
-  <si>
-    <t>زومبي</t>
-  </si>
-  <si>
-    <t>Zombie (Vanilla)</t>
-  </si>
-  <si>
-    <t>زومبي (فانيليا)</t>
-  </si>
-  <si>
-    <t>Zootopia</t>
-  </si>
-  <si>
-    <t>زوتوبيا</t>
   </si>
   <si>
     <t>Fall Drop</t>
@@ -7419,7 +7425,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1187"/>
+  <dimension ref="A1:B1188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -16861,15 +16867,15 @@
         <v>2335</v>
       </c>
       <c r="B1179" t="s">
-        <v>912</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="1180" spans="1:2">
       <c r="A1180" t="s">
-        <v>2336</v>
+        <v>2337</v>
       </c>
       <c r="B1180" t="s">
-        <v>2337</v>
+        <v>912</v>
       </c>
     </row>
     <row r="1181" spans="1:2">
@@ -16928,8 +16934,16 @@
         <v>2351</v>
       </c>
     </row>
+    <row r="1188" spans="1:2">
+      <c r="A1188" t="s">
+        <v>2352</v>
+      </c>
+      <c r="B1188" t="s">
+        <v>2353</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1187"/>
+  <autoFilter ref="A1:B1188"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
